--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1046879542507497</v>
+        <v>0.1046879542507781</v>
       </c>
       <c r="D2">
-        <v>0.01930010598462317</v>
+        <v>0.01930010598464449</v>
       </c>
       <c r="E2">
-        <v>0.03293696927323353</v>
+        <v>0.03293696927320511</v>
       </c>
       <c r="F2">
-        <v>2.290250962767942</v>
+        <v>2.290250962767928</v>
       </c>
       <c r="G2">
-        <v>1.822868133747562</v>
+        <v>1.822868133747548</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>8.320366851202436</v>
       </c>
       <c r="K2">
-        <v>0.06393284442224001</v>
+        <v>0.06393284442223646</v>
       </c>
       <c r="L2">
         <v>5.004784823452695</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0889010185536705</v>
+        <v>0.08890101855365629</v>
       </c>
       <c r="D3">
-        <v>0.01394141486085232</v>
+        <v>0.01394141486073153</v>
       </c>
       <c r="E3">
-        <v>0.0304394715674281</v>
+        <v>0.03043947156741922</v>
       </c>
       <c r="F3">
-        <v>1.924685136873563</v>
+        <v>1.924685136873535</v>
       </c>
       <c r="G3">
-        <v>1.527622845559534</v>
+        <v>1.527622845559563</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>7.14207947251046</v>
       </c>
       <c r="K3">
-        <v>0.05641518567345827</v>
+        <v>0.05641518567345472</v>
       </c>
       <c r="L3">
-        <v>4.290474137935888</v>
+        <v>4.290474137935931</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0797870490187762</v>
+        <v>0.07978704901861988</v>
       </c>
       <c r="D4">
-        <v>0.01167840435996936</v>
+        <v>0.01167840436007239</v>
       </c>
       <c r="E4">
-        <v>0.02903479724325031</v>
+        <v>0.02903479724327873</v>
       </c>
       <c r="F4">
-        <v>1.720767198436093</v>
+        <v>1.720767198436079</v>
       </c>
       <c r="G4">
-        <v>1.364274095253919</v>
+        <v>1.364274095253904</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.436433512290023</v>
+        <v>6.436433512289994</v>
       </c>
       <c r="K4">
-        <v>0.05187976941526529</v>
+        <v>0.05187976941522976</v>
       </c>
       <c r="L4">
         <v>3.863904251553379</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07619387962094493</v>
+        <v>0.07619387962074597</v>
       </c>
       <c r="D5">
-        <v>0.0109717446100106</v>
+        <v>0.01097174461001771</v>
       </c>
       <c r="E5">
-        <v>0.02849081149290811</v>
+        <v>0.02849081149287613</v>
       </c>
       <c r="F5">
-        <v>1.641983102761941</v>
+        <v>1.641983102761898</v>
       </c>
       <c r="G5">
-        <v>1.301475736149087</v>
+        <v>1.301475736149072</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.152437996258442</v>
+        <v>6.152437996258413</v>
       </c>
       <c r="K5">
-        <v>0.05004794625391007</v>
+        <v>0.05004794625388875</v>
       </c>
       <c r="L5">
-        <v>3.692490667695395</v>
+        <v>3.692490667695338</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07560389173144699</v>
+        <v>0.0756038917318449</v>
       </c>
       <c r="D6">
-        <v>0.0108663240277167</v>
+        <v>0.01086632402792276</v>
       </c>
       <c r="E6">
-        <v>0.02840209728380216</v>
+        <v>0.02840209728382703</v>
       </c>
       <c r="F6">
-        <v>1.629139595569868</v>
+        <v>1.629139595569853</v>
       </c>
       <c r="G6">
         <v>1.291256478601497</v>
@@ -591,10 +591,10 @@
         <v>6.10547187696227</v>
       </c>
       <c r="K6">
-        <v>0.04974466360997454</v>
+        <v>0.04974466360997809</v>
       </c>
       <c r="L6">
-        <v>3.664157838853299</v>
+        <v>3.664157838853313</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07973813059761881</v>
+        <v>0.07973813059736301</v>
       </c>
       <c r="D7">
-        <v>0.01166805201276233</v>
+        <v>0.01166805201286181</v>
       </c>
       <c r="E7">
-        <v>0.0290273504825258</v>
+        <v>0.02902735048252758</v>
       </c>
       <c r="F7">
         <v>1.719688234955839</v>
       </c>
       <c r="G7">
-        <v>1.363412803275168</v>
+        <v>1.363412803275153</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.432590133479692</v>
+        <v>6.432590133479664</v>
       </c>
       <c r="K7">
-        <v>0.0518550030243965</v>
+        <v>0.0518550030244036</v>
       </c>
       <c r="L7">
         <v>3.861583444673713</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09910794839890968</v>
+        <v>0.09910794839848336</v>
       </c>
       <c r="D8">
-        <v>0.01721065969699964</v>
+        <v>0.01721065969691438</v>
       </c>
       <c r="E8">
-        <v>0.03204648566767077</v>
+        <v>0.0320464856677134</v>
       </c>
       <c r="F8">
-        <v>2.159375773427456</v>
+        <v>2.159375773427442</v>
       </c>
       <c r="G8">
-        <v>1.716853003500006</v>
+        <v>1.716853003499992</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.909783375122714</v>
+        <v>7.909783375122657</v>
       </c>
       <c r="K8">
-        <v>0.06132152861060192</v>
+        <v>0.06132152861061257</v>
       </c>
       <c r="L8">
-        <v>4.755595107914132</v>
+        <v>4.755595107914061</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,16 +684,16 @@
         <v>0.1431221720161062</v>
       </c>
       <c r="D9">
-        <v>0.0387544010293901</v>
+        <v>0.03875440102941141</v>
       </c>
       <c r="E9">
-        <v>0.0392148646046504</v>
+        <v>0.03921486460466284</v>
       </c>
       <c r="F9">
-        <v>3.233981291201758</v>
+        <v>3.233981291201673</v>
       </c>
       <c r="G9">
-        <v>2.595349520649421</v>
+        <v>2.595349520649378</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>11.00101663638168</v>
       </c>
       <c r="K9">
-        <v>0.08074148753736665</v>
+        <v>0.08074148753735599</v>
       </c>
       <c r="L9">
-        <v>6.638975206140032</v>
+        <v>6.638975206140003</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1818887705809402</v>
+        <v>0.1818887705811676</v>
       </c>
       <c r="D10">
-        <v>0.06607022366314652</v>
+        <v>0.0660702236632531</v>
       </c>
       <c r="E10">
-        <v>0.04566495274452009</v>
+        <v>0.04566495274448812</v>
       </c>
       <c r="F10">
-        <v>4.248451913017362</v>
+        <v>4.248451913017476</v>
       </c>
       <c r="G10">
-        <v>3.437280095607761</v>
+        <v>3.437280095607818</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.49147408405514</v>
+        <v>13.49147408405517</v>
       </c>
       <c r="K10">
-        <v>0.09593472664887415</v>
+        <v>0.09593472664889546</v>
       </c>
       <c r="L10">
-        <v>8.168500536785388</v>
+        <v>8.168500536785444</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2018933180473681</v>
+        <v>0.2018933180476239</v>
       </c>
       <c r="D11">
-        <v>0.08281259382922457</v>
+        <v>0.08281259382923167</v>
       </c>
       <c r="E11">
-        <v>0.04899915834582913</v>
+        <v>0.04899915834584334</v>
       </c>
       <c r="F11">
-        <v>4.792853728528684</v>
+        <v>4.792853728528627</v>
       </c>
       <c r="G11">
-        <v>3.892790273231185</v>
+        <v>3.892790273231128</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.70709611347007</v>
+        <v>14.70709611346999</v>
       </c>
       <c r="K11">
-        <v>0.1031817880483032</v>
+        <v>0.1031817880482926</v>
       </c>
       <c r="L11">
-        <v>8.919147109445504</v>
+        <v>8.919147109445532</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2099374914517966</v>
+        <v>0.2099374914520524</v>
       </c>
       <c r="D12">
         <v>0.0900201622304877</v>
       </c>
       <c r="E12">
-        <v>0.05033727370356544</v>
+        <v>0.05033727370357965</v>
       </c>
       <c r="F12">
-        <v>5.015453661069785</v>
+        <v>5.015453661069813</v>
       </c>
       <c r="G12">
-        <v>4.079679374247391</v>
+        <v>4.079679374247434</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15.18386252706551</v>
+        <v>15.18386252706537</v>
       </c>
       <c r="K12">
         <v>0.1059910348084152</v>
       </c>
       <c r="L12">
-        <v>9.214305329629354</v>
+        <v>9.214305329629326</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2081814874406689</v>
+        <v>0.2081814874406973</v>
       </c>
       <c r="D13">
-        <v>0.08842403202076099</v>
+        <v>0.08842403202078231</v>
       </c>
       <c r="E13">
         <v>0.05004535973419522</v>
@@ -845,7 +845,7 @@
         <v>4.966685822792357</v>
       </c>
       <c r="G13">
-        <v>4.038705265907282</v>
+        <v>4.03870526590724</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15.08035654699034</v>
+        <v>15.08035654699032</v>
       </c>
       <c r="K13">
-        <v>0.1053827855083327</v>
+        <v>0.1053827855083114</v>
       </c>
       <c r="L13">
-        <v>9.150189725695441</v>
+        <v>9.150189725695412</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2025447735232717</v>
+        <v>0.2025447735229449</v>
       </c>
       <c r="D14">
-        <v>0.08338632947021551</v>
+        <v>0.08338632947008762</v>
       </c>
       <c r="E14">
-        <v>0.04910760268508696</v>
+        <v>0.04910760268505143</v>
       </c>
       <c r="F14">
-        <v>4.810804005918044</v>
+        <v>4.810804005918015</v>
       </c>
       <c r="G14">
-        <v>3.907847754310595</v>
+        <v>3.907847754310524</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.74595723612987</v>
+        <v>14.74595723612978</v>
       </c>
       <c r="K14">
-        <v>0.1034114853311827</v>
+        <v>0.1034114853311721</v>
       </c>
       <c r="L14">
-        <v>8.943189257935217</v>
+        <v>8.943189257935188</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1991579809998711</v>
+        <v>0.1991579809996722</v>
       </c>
       <c r="D15">
-        <v>0.08042292673904683</v>
+        <v>0.08042292673915341</v>
       </c>
       <c r="E15">
-        <v>0.0485436931235057</v>
+        <v>0.04854369312351281</v>
       </c>
       <c r="F15">
-        <v>4.717633594931328</v>
+        <v>4.717633594931243</v>
       </c>
       <c r="G15">
-        <v>3.829717871010473</v>
+        <v>3.829717871010416</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.54343748126257</v>
+        <v>14.54343748126249</v>
       </c>
       <c r="K15">
-        <v>0.1022130720962231</v>
+        <v>0.1022130720962551</v>
       </c>
       <c r="L15">
         <v>8.817927885323343</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1806388357519637</v>
+        <v>0.1806388357522337</v>
       </c>
       <c r="D16">
-        <v>0.0650815394113522</v>
+        <v>0.06508153941123851</v>
       </c>
       <c r="E16">
-        <v>0.04545648857868301</v>
+        <v>0.04545648857864748</v>
       </c>
       <c r="F16">
         <v>4.214885158877962</v>
       </c>
       <c r="G16">
-        <v>3.40927121998908</v>
+        <v>3.409271219989066</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.41404078502714</v>
+        <v>13.41404078502711</v>
       </c>
       <c r="K16">
-        <v>0.09546915326780692</v>
+        <v>0.09546915326783889</v>
       </c>
       <c r="L16">
         <v>8.120777549487144</v>
@@ -988,10 +988,10 @@
         <v>0.169960023215765</v>
       </c>
       <c r="D17">
-        <v>0.05691884351293197</v>
+        <v>0.05691884351290355</v>
       </c>
       <c r="E17">
-        <v>0.04367583117904772</v>
+        <v>0.04367583117907614</v>
       </c>
       <c r="F17">
         <v>3.930347489965442</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.74505734065485</v>
+        <v>12.74505734065488</v>
       </c>
       <c r="K17">
-        <v>0.09142796591768843</v>
+        <v>0.0914279659177204</v>
       </c>
       <c r="L17">
-        <v>7.708927220509395</v>
+        <v>7.70892722050931</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1640308646195479</v>
+        <v>0.1640308646190221</v>
       </c>
       <c r="D18">
-        <v>0.05261066187032526</v>
+        <v>0.05261066187043895</v>
       </c>
       <c r="E18">
-        <v>0.04268791530062543</v>
+        <v>0.04268791530060767</v>
       </c>
       <c r="F18">
-        <v>3.774138852294499</v>
+        <v>3.774138852294584</v>
       </c>
       <c r="G18">
-        <v>3.042409274194128</v>
+        <v>3.042409274194156</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.36770691427012</v>
+        <v>12.36770691427023</v>
       </c>
       <c r="K18">
-        <v>0.08913389363370428</v>
+        <v>0.08913389363372204</v>
       </c>
       <c r="L18">
-        <v>7.476970707040238</v>
+        <v>7.476970707040294</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1620568668584497</v>
+        <v>0.1620568668583644</v>
       </c>
       <c r="D19">
-        <v>0.05121258547958973</v>
+        <v>0.05121258547966789</v>
       </c>
       <c r="E19">
-        <v>0.04235921058736203</v>
+        <v>0.04235921058732295</v>
       </c>
       <c r="F19">
-        <v>3.722420871737114</v>
+        <v>3.722420871737171</v>
       </c>
       <c r="G19">
-        <v>2.999477227954273</v>
+        <v>2.999477227954358</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.24110909102316</v>
+        <v>12.24110909102325</v>
       </c>
       <c r="K19">
-        <v>0.08836195352775889</v>
+        <v>0.08836195352776599</v>
       </c>
       <c r="L19">
-        <v>7.399208041869798</v>
+        <v>7.399208041869827</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1710739973499642</v>
+        <v>0.1710739973504758</v>
       </c>
       <c r="D20">
-        <v>0.05774630396463465</v>
+        <v>0.05774630396465597</v>
       </c>
       <c r="E20">
-        <v>0.04386152239141694</v>
+        <v>0.04386152239141339</v>
       </c>
       <c r="F20">
-        <v>3.959839325617139</v>
+        <v>3.959839325617168</v>
       </c>
       <c r="G20">
         <v>3.196768827111441</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.81547562627964</v>
+        <v>12.81547562627966</v>
       </c>
       <c r="K20">
-        <v>0.09185491869495976</v>
+        <v>0.09185491869494555</v>
       </c>
       <c r="L20">
-        <v>7.752241344145148</v>
+        <v>7.752241344145176</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2041863703258286</v>
+        <v>0.2041863703256297</v>
       </c>
       <c r="D21">
-        <v>0.08483990690194076</v>
+        <v>0.08483990690204735</v>
       </c>
       <c r="E21">
         <v>0.0493808145638539</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.84368595059217</v>
+        <v>14.84368595059212</v>
       </c>
       <c r="K21">
-        <v>0.1039885749902218</v>
+        <v>0.1039885749902503</v>
       </c>
       <c r="L21">
         <v>9.003663531313293</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2286708130710196</v>
+        <v>0.2286708130707495</v>
       </c>
       <c r="D22">
-        <v>0.1078235662559166</v>
+        <v>0.1078235662558171</v>
       </c>
       <c r="E22">
-        <v>0.05344283732278754</v>
+        <v>0.05344283732279465</v>
       </c>
       <c r="F22">
         <v>5.541655813727431</v>
       </c>
       <c r="G22">
-        <v>4.522801770294052</v>
+        <v>4.522801770293981</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.268903351348</v>
+        <v>16.26890335134794</v>
       </c>
       <c r="K22">
-        <v>0.1123105931671269</v>
+        <v>0.112310593167134</v>
       </c>
       <c r="L22">
         <v>9.887671447166213</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2152828598728576</v>
+        <v>0.215282859872886</v>
       </c>
       <c r="D23">
-        <v>0.09495629764285241</v>
+        <v>0.09495629764295188</v>
       </c>
       <c r="E23">
-        <v>0.0512251201137488</v>
+        <v>0.05122512011378078</v>
       </c>
       <c r="F23">
-        <v>5.164500320539645</v>
+        <v>5.16450032053956</v>
       </c>
       <c r="G23">
-        <v>4.205007771691072</v>
+        <v>4.205007771690973</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>15.49701355338928</v>
       </c>
       <c r="K23">
-        <v>0.1078256251899177</v>
+        <v>0.107825625189907</v>
       </c>
       <c r="L23">
-        <v>9.408408449553207</v>
+        <v>9.408408449553121</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1705697235777848</v>
+        <v>0.1705697235779695</v>
       </c>
       <c r="D24">
-        <v>0.05737102772771863</v>
+        <v>0.05737102772759073</v>
       </c>
       <c r="E24">
-        <v>0.04377746110786873</v>
+        <v>0.04377746110785452</v>
       </c>
       <c r="F24">
-        <v>3.946483401224611</v>
+        <v>3.946483401224668</v>
       </c>
       <c r="G24">
-        <v>3.185656475915209</v>
+        <v>3.185656475915238</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.78361722703653</v>
+        <v>12.7836172270365</v>
       </c>
       <c r="K24">
-        <v>0.09166180336362828</v>
+        <v>0.09166180336362117</v>
       </c>
       <c r="L24">
         <v>7.732644217036295</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1303347114691888</v>
+        <v>0.130334711469402</v>
       </c>
       <c r="D25">
-        <v>0.03136537849804455</v>
+        <v>0.03136537849814403</v>
       </c>
       <c r="E25">
-        <v>0.03710535894846245</v>
+        <v>0.03710535894843225</v>
       </c>
       <c r="F25">
         <v>2.912422910609109</v>
       </c>
       <c r="G25">
-        <v>2.330759564493761</v>
+        <v>2.330759564493789</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>10.1352802388918</v>
       </c>
       <c r="K25">
-        <v>0.07536096432035677</v>
+        <v>0.07536096432033546</v>
       </c>
       <c r="L25">
-        <v>6.10983263359455</v>
+        <v>6.109832633594579</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -415,19 +415,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1046879542507781</v>
+        <v>0.1046879542507497</v>
       </c>
       <c r="D2">
-        <v>0.01930010598464449</v>
+        <v>0.01930010598462317</v>
       </c>
       <c r="E2">
-        <v>0.03293696927320511</v>
+        <v>0.03293696927323353</v>
       </c>
       <c r="F2">
-        <v>2.290250962767928</v>
+        <v>2.290250962767942</v>
       </c>
       <c r="G2">
-        <v>1.822868133747548</v>
+        <v>1.822868133747562</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>8.320366851202436</v>
       </c>
       <c r="K2">
-        <v>0.06393284442223646</v>
+        <v>0.06393284442224001</v>
       </c>
       <c r="L2">
         <v>5.004784823452695</v>
@@ -453,19 +453,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08890101855365629</v>
+        <v>0.0889010185536705</v>
       </c>
       <c r="D3">
-        <v>0.01394141486073153</v>
+        <v>0.01394141486085232</v>
       </c>
       <c r="E3">
-        <v>0.03043947156741922</v>
+        <v>0.0304394715674281</v>
       </c>
       <c r="F3">
-        <v>1.924685136873535</v>
+        <v>1.924685136873563</v>
       </c>
       <c r="G3">
-        <v>1.527622845559563</v>
+        <v>1.527622845559534</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,10 +477,10 @@
         <v>7.14207947251046</v>
       </c>
       <c r="K3">
-        <v>0.05641518567345472</v>
+        <v>0.05641518567345827</v>
       </c>
       <c r="L3">
-        <v>4.290474137935931</v>
+        <v>4.290474137935888</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,19 +491,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07978704901861988</v>
+        <v>0.0797870490187762</v>
       </c>
       <c r="D4">
-        <v>0.01167840436007239</v>
+        <v>0.01167840435996936</v>
       </c>
       <c r="E4">
-        <v>0.02903479724327873</v>
+        <v>0.02903479724325031</v>
       </c>
       <c r="F4">
-        <v>1.720767198436079</v>
+        <v>1.720767198436093</v>
       </c>
       <c r="G4">
-        <v>1.364274095253904</v>
+        <v>1.364274095253919</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.436433512289994</v>
+        <v>6.436433512290023</v>
       </c>
       <c r="K4">
-        <v>0.05187976941522976</v>
+        <v>0.05187976941526529</v>
       </c>
       <c r="L4">
         <v>3.863904251553379</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07619387962074597</v>
+        <v>0.07619387962094493</v>
       </c>
       <c r="D5">
-        <v>0.01097174461001771</v>
+        <v>0.0109717446100106</v>
       </c>
       <c r="E5">
-        <v>0.02849081149287613</v>
+        <v>0.02849081149290811</v>
       </c>
       <c r="F5">
-        <v>1.641983102761898</v>
+        <v>1.641983102761941</v>
       </c>
       <c r="G5">
-        <v>1.301475736149072</v>
+        <v>1.301475736149087</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.152437996258413</v>
+        <v>6.152437996258442</v>
       </c>
       <c r="K5">
-        <v>0.05004794625388875</v>
+        <v>0.05004794625391007</v>
       </c>
       <c r="L5">
-        <v>3.692490667695338</v>
+        <v>3.692490667695395</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,16 +567,16 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0756038917318449</v>
+        <v>0.07560389173144699</v>
       </c>
       <c r="D6">
-        <v>0.01086632402792276</v>
+        <v>0.0108663240277167</v>
       </c>
       <c r="E6">
-        <v>0.02840209728382703</v>
+        <v>0.02840209728380216</v>
       </c>
       <c r="F6">
-        <v>1.629139595569853</v>
+        <v>1.629139595569868</v>
       </c>
       <c r="G6">
         <v>1.291256478601497</v>
@@ -591,10 +591,10 @@
         <v>6.10547187696227</v>
       </c>
       <c r="K6">
-        <v>0.04974466360997809</v>
+        <v>0.04974466360997454</v>
       </c>
       <c r="L6">
-        <v>3.664157838853313</v>
+        <v>3.664157838853299</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07973813059736301</v>
+        <v>0.07973813059761881</v>
       </c>
       <c r="D7">
-        <v>0.01166805201286181</v>
+        <v>0.01166805201276233</v>
       </c>
       <c r="E7">
-        <v>0.02902735048252758</v>
+        <v>0.0290273504825258</v>
       </c>
       <c r="F7">
         <v>1.719688234955839</v>
       </c>
       <c r="G7">
-        <v>1.363412803275153</v>
+        <v>1.363412803275168</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.432590133479664</v>
+        <v>6.432590133479692</v>
       </c>
       <c r="K7">
-        <v>0.0518550030244036</v>
+        <v>0.0518550030243965</v>
       </c>
       <c r="L7">
         <v>3.861583444673713</v>
@@ -643,19 +643,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09910794839848336</v>
+        <v>0.09910794839890968</v>
       </c>
       <c r="D8">
-        <v>0.01721065969691438</v>
+        <v>0.01721065969699964</v>
       </c>
       <c r="E8">
-        <v>0.0320464856677134</v>
+        <v>0.03204648566767077</v>
       </c>
       <c r="F8">
-        <v>2.159375773427442</v>
+        <v>2.159375773427456</v>
       </c>
       <c r="G8">
-        <v>1.716853003499992</v>
+        <v>1.716853003500006</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.909783375122657</v>
+        <v>7.909783375122714</v>
       </c>
       <c r="K8">
-        <v>0.06132152861061257</v>
+        <v>0.06132152861060192</v>
       </c>
       <c r="L8">
-        <v>4.755595107914061</v>
+        <v>4.755595107914132</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,16 +684,16 @@
         <v>0.1431221720161062</v>
       </c>
       <c r="D9">
-        <v>0.03875440102941141</v>
+        <v>0.0387544010293901</v>
       </c>
       <c r="E9">
-        <v>0.03921486460466284</v>
+        <v>0.0392148646046504</v>
       </c>
       <c r="F9">
-        <v>3.233981291201673</v>
+        <v>3.233981291201758</v>
       </c>
       <c r="G9">
-        <v>2.595349520649378</v>
+        <v>2.595349520649421</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>11.00101663638168</v>
       </c>
       <c r="K9">
-        <v>0.08074148753735599</v>
+        <v>0.08074148753736665</v>
       </c>
       <c r="L9">
-        <v>6.638975206140003</v>
+        <v>6.638975206140032</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1818887705811676</v>
+        <v>0.1818887705809402</v>
       </c>
       <c r="D10">
-        <v>0.0660702236632531</v>
+        <v>0.06607022366314652</v>
       </c>
       <c r="E10">
-        <v>0.04566495274448812</v>
+        <v>0.04566495274452009</v>
       </c>
       <c r="F10">
-        <v>4.248451913017476</v>
+        <v>4.248451913017362</v>
       </c>
       <c r="G10">
-        <v>3.437280095607818</v>
+        <v>3.437280095607761</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.49147408405517</v>
+        <v>13.49147408405514</v>
       </c>
       <c r="K10">
-        <v>0.09593472664889546</v>
+        <v>0.09593472664887415</v>
       </c>
       <c r="L10">
-        <v>8.168500536785444</v>
+        <v>8.168500536785388</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2018933180476239</v>
+        <v>0.2018933180473681</v>
       </c>
       <c r="D11">
-        <v>0.08281259382923167</v>
+        <v>0.08281259382922457</v>
       </c>
       <c r="E11">
-        <v>0.04899915834584334</v>
+        <v>0.04899915834582913</v>
       </c>
       <c r="F11">
-        <v>4.792853728528627</v>
+        <v>4.792853728528684</v>
       </c>
       <c r="G11">
-        <v>3.892790273231128</v>
+        <v>3.892790273231185</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.70709611346999</v>
+        <v>14.70709611347007</v>
       </c>
       <c r="K11">
-        <v>0.1031817880482926</v>
+        <v>0.1031817880483032</v>
       </c>
       <c r="L11">
-        <v>8.919147109445532</v>
+        <v>8.919147109445504</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2099374914520524</v>
+        <v>0.2099374914517966</v>
       </c>
       <c r="D12">
         <v>0.0900201622304877</v>
       </c>
       <c r="E12">
-        <v>0.05033727370357965</v>
+        <v>0.05033727370356544</v>
       </c>
       <c r="F12">
-        <v>5.015453661069813</v>
+        <v>5.015453661069785</v>
       </c>
       <c r="G12">
-        <v>4.079679374247434</v>
+        <v>4.079679374247391</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15.18386252706537</v>
+        <v>15.18386252706551</v>
       </c>
       <c r="K12">
         <v>0.1059910348084152</v>
       </c>
       <c r="L12">
-        <v>9.214305329629326</v>
+        <v>9.214305329629354</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2081814874406973</v>
+        <v>0.2081814874406689</v>
       </c>
       <c r="D13">
-        <v>0.08842403202078231</v>
+        <v>0.08842403202076099</v>
       </c>
       <c r="E13">
         <v>0.05004535973419522</v>
@@ -845,7 +845,7 @@
         <v>4.966685822792357</v>
       </c>
       <c r="G13">
-        <v>4.03870526590724</v>
+        <v>4.038705265907282</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15.08035654699032</v>
+        <v>15.08035654699034</v>
       </c>
       <c r="K13">
-        <v>0.1053827855083114</v>
+        <v>0.1053827855083327</v>
       </c>
       <c r="L13">
-        <v>9.150189725695412</v>
+        <v>9.150189725695441</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2025447735229449</v>
+        <v>0.2025447735232717</v>
       </c>
       <c r="D14">
-        <v>0.08338632947008762</v>
+        <v>0.08338632947021551</v>
       </c>
       <c r="E14">
-        <v>0.04910760268505143</v>
+        <v>0.04910760268508696</v>
       </c>
       <c r="F14">
-        <v>4.810804005918015</v>
+        <v>4.810804005918044</v>
       </c>
       <c r="G14">
-        <v>3.907847754310524</v>
+        <v>3.907847754310595</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.74595723612978</v>
+        <v>14.74595723612987</v>
       </c>
       <c r="K14">
-        <v>0.1034114853311721</v>
+        <v>0.1034114853311827</v>
       </c>
       <c r="L14">
-        <v>8.943189257935188</v>
+        <v>8.943189257935217</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1991579809996722</v>
+        <v>0.1991579809998711</v>
       </c>
       <c r="D15">
-        <v>0.08042292673915341</v>
+        <v>0.08042292673904683</v>
       </c>
       <c r="E15">
-        <v>0.04854369312351281</v>
+        <v>0.0485436931235057</v>
       </c>
       <c r="F15">
-        <v>4.717633594931243</v>
+        <v>4.717633594931328</v>
       </c>
       <c r="G15">
-        <v>3.829717871010416</v>
+        <v>3.829717871010473</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.54343748126249</v>
+        <v>14.54343748126257</v>
       </c>
       <c r="K15">
-        <v>0.1022130720962551</v>
+        <v>0.1022130720962231</v>
       </c>
       <c r="L15">
         <v>8.817927885323343</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1806388357522337</v>
+        <v>0.1806388357519637</v>
       </c>
       <c r="D16">
-        <v>0.06508153941123851</v>
+        <v>0.0650815394113522</v>
       </c>
       <c r="E16">
-        <v>0.04545648857864748</v>
+        <v>0.04545648857868301</v>
       </c>
       <c r="F16">
         <v>4.214885158877962</v>
       </c>
       <c r="G16">
-        <v>3.409271219989066</v>
+        <v>3.40927121998908</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.41404078502711</v>
+        <v>13.41404078502714</v>
       </c>
       <c r="K16">
-        <v>0.09546915326783889</v>
+        <v>0.09546915326780692</v>
       </c>
       <c r="L16">
         <v>8.120777549487144</v>
@@ -988,10 +988,10 @@
         <v>0.169960023215765</v>
       </c>
       <c r="D17">
-        <v>0.05691884351290355</v>
+        <v>0.05691884351293197</v>
       </c>
       <c r="E17">
-        <v>0.04367583117907614</v>
+        <v>0.04367583117904772</v>
       </c>
       <c r="F17">
         <v>3.930347489965442</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.74505734065488</v>
+        <v>12.74505734065485</v>
       </c>
       <c r="K17">
-        <v>0.0914279659177204</v>
+        <v>0.09142796591768843</v>
       </c>
       <c r="L17">
-        <v>7.70892722050931</v>
+        <v>7.708927220509395</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1640308646190221</v>
+        <v>0.1640308646195479</v>
       </c>
       <c r="D18">
-        <v>0.05261066187043895</v>
+        <v>0.05261066187032526</v>
       </c>
       <c r="E18">
-        <v>0.04268791530060767</v>
+        <v>0.04268791530062543</v>
       </c>
       <c r="F18">
-        <v>3.774138852294584</v>
+        <v>3.774138852294499</v>
       </c>
       <c r="G18">
-        <v>3.042409274194156</v>
+        <v>3.042409274194128</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.36770691427023</v>
+        <v>12.36770691427012</v>
       </c>
       <c r="K18">
-        <v>0.08913389363372204</v>
+        <v>0.08913389363370428</v>
       </c>
       <c r="L18">
-        <v>7.476970707040294</v>
+        <v>7.476970707040238</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,19 +1061,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1620568668583644</v>
+        <v>0.1620568668584497</v>
       </c>
       <c r="D19">
-        <v>0.05121258547966789</v>
+        <v>0.05121258547958973</v>
       </c>
       <c r="E19">
-        <v>0.04235921058732295</v>
+        <v>0.04235921058736203</v>
       </c>
       <c r="F19">
-        <v>3.722420871737171</v>
+        <v>3.722420871737114</v>
       </c>
       <c r="G19">
-        <v>2.999477227954358</v>
+        <v>2.999477227954273</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.24110909102325</v>
+        <v>12.24110909102316</v>
       </c>
       <c r="K19">
-        <v>0.08836195352776599</v>
+        <v>0.08836195352775889</v>
       </c>
       <c r="L19">
-        <v>7.399208041869827</v>
+        <v>7.399208041869798</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1710739973504758</v>
+        <v>0.1710739973499642</v>
       </c>
       <c r="D20">
-        <v>0.05774630396465597</v>
+        <v>0.05774630396463465</v>
       </c>
       <c r="E20">
-        <v>0.04386152239141339</v>
+        <v>0.04386152239141694</v>
       </c>
       <c r="F20">
-        <v>3.959839325617168</v>
+        <v>3.959839325617139</v>
       </c>
       <c r="G20">
         <v>3.196768827111441</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.81547562627966</v>
+        <v>12.81547562627964</v>
       </c>
       <c r="K20">
-        <v>0.09185491869494555</v>
+        <v>0.09185491869495976</v>
       </c>
       <c r="L20">
-        <v>7.752241344145176</v>
+        <v>7.752241344145148</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2041863703256297</v>
+        <v>0.2041863703258286</v>
       </c>
       <c r="D21">
-        <v>0.08483990690204735</v>
+        <v>0.08483990690194076</v>
       </c>
       <c r="E21">
         <v>0.0493808145638539</v>
@@ -1158,10 +1158,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.84368595059212</v>
+        <v>14.84368595059217</v>
       </c>
       <c r="K21">
-        <v>0.1039885749902503</v>
+        <v>0.1039885749902218</v>
       </c>
       <c r="L21">
         <v>9.003663531313293</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2286708130707495</v>
+        <v>0.2286708130710196</v>
       </c>
       <c r="D22">
-        <v>0.1078235662558171</v>
+        <v>0.1078235662559166</v>
       </c>
       <c r="E22">
-        <v>0.05344283732279465</v>
+        <v>0.05344283732278754</v>
       </c>
       <c r="F22">
         <v>5.541655813727431</v>
       </c>
       <c r="G22">
-        <v>4.522801770293981</v>
+        <v>4.522801770294052</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.26890335134794</v>
+        <v>16.268903351348</v>
       </c>
       <c r="K22">
-        <v>0.112310593167134</v>
+        <v>0.1123105931671269</v>
       </c>
       <c r="L22">
         <v>9.887671447166213</v>
@@ -1213,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.215282859872886</v>
+        <v>0.2152828598728576</v>
       </c>
       <c r="D23">
-        <v>0.09495629764295188</v>
+        <v>0.09495629764285241</v>
       </c>
       <c r="E23">
-        <v>0.05122512011378078</v>
+        <v>0.0512251201137488</v>
       </c>
       <c r="F23">
-        <v>5.16450032053956</v>
+        <v>5.164500320539645</v>
       </c>
       <c r="G23">
-        <v>4.205007771690973</v>
+        <v>4.205007771691072</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>15.49701355338928</v>
       </c>
       <c r="K23">
-        <v>0.107825625189907</v>
+        <v>0.1078256251899177</v>
       </c>
       <c r="L23">
-        <v>9.408408449553121</v>
+        <v>9.408408449553207</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,19 +1251,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1705697235779695</v>
+        <v>0.1705697235777848</v>
       </c>
       <c r="D24">
-        <v>0.05737102772759073</v>
+        <v>0.05737102772771863</v>
       </c>
       <c r="E24">
-        <v>0.04377746110785452</v>
+        <v>0.04377746110786873</v>
       </c>
       <c r="F24">
-        <v>3.946483401224668</v>
+        <v>3.946483401224611</v>
       </c>
       <c r="G24">
-        <v>3.185656475915238</v>
+        <v>3.185656475915209</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.7836172270365</v>
+        <v>12.78361722703653</v>
       </c>
       <c r="K24">
-        <v>0.09166180336362117</v>
+        <v>0.09166180336362828</v>
       </c>
       <c r="L24">
         <v>7.732644217036295</v>
@@ -1289,19 +1289,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.130334711469402</v>
+        <v>0.1303347114691888</v>
       </c>
       <c r="D25">
-        <v>0.03136537849814403</v>
+        <v>0.03136537849804455</v>
       </c>
       <c r="E25">
-        <v>0.03710535894843225</v>
+        <v>0.03710535894846245</v>
       </c>
       <c r="F25">
         <v>2.912422910609109</v>
       </c>
       <c r="G25">
-        <v>2.330759564493789</v>
+        <v>2.330759564493761</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>10.1352802388918</v>
       </c>
       <c r="K25">
-        <v>0.07536096432033546</v>
+        <v>0.07536096432035677</v>
       </c>
       <c r="L25">
-        <v>6.109832633594579</v>
+        <v>6.10983263359455</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1046879542507497</v>
+        <v>0.1046741859132823</v>
       </c>
       <c r="D2">
-        <v>0.01930010598462317</v>
+        <v>0.01913463958396733</v>
       </c>
       <c r="E2">
-        <v>0.03293696927323353</v>
+        <v>0.03292493164445887</v>
       </c>
       <c r="F2">
-        <v>2.290250962767942</v>
+        <v>2.285407588938881</v>
       </c>
       <c r="G2">
-        <v>1.822868133747562</v>
+        <v>0.61916789585419</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.202303488411573</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.320366851202436</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.06393284442224001</v>
+        <v>8.319395518995321</v>
       </c>
       <c r="L2">
-        <v>5.004784823452695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.0639183717685583</v>
+      </c>
+      <c r="M2">
+        <v>5.004219457632615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0889010185536705</v>
+        <v>0.08889174963690039</v>
       </c>
       <c r="D3">
-        <v>0.01394141486085232</v>
+        <v>0.01380962421592002</v>
       </c>
       <c r="E3">
-        <v>0.0304394715674281</v>
+        <v>0.03042764878545512</v>
       </c>
       <c r="F3">
-        <v>1.924685136873563</v>
+        <v>1.920656470419956</v>
       </c>
       <c r="G3">
-        <v>1.527622845559534</v>
+        <v>0.5143520225903018</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.012908654896279</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.14207947251046</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.05641518567345827</v>
+        <v>7.141435799029011</v>
       </c>
       <c r="L3">
-        <v>4.290474137935888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.05640319301518204</v>
+      </c>
+      <c r="M3">
+        <v>4.290108117573638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0797870490187762</v>
+        <v>0.07977996532034126</v>
       </c>
       <c r="D4">
-        <v>0.01167840435996936</v>
+        <v>0.01156385405823457</v>
       </c>
       <c r="E4">
-        <v>0.02903479724325031</v>
+        <v>0.0290236155671959</v>
       </c>
       <c r="F4">
-        <v>1.720767198436093</v>
+        <v>1.717187546356044</v>
       </c>
       <c r="G4">
-        <v>1.364274095253919</v>
+        <v>0.4559491728784337</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9085378106445035</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.436433512290023</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.05187976941526529</v>
+        <v>6.435952648053359</v>
       </c>
       <c r="L4">
-        <v>3.863904251553379</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.05186936669097975</v>
+      </c>
+      <c r="M4">
+        <v>3.863635819847048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07619387962094493</v>
+        <v>0.07618758125862257</v>
       </c>
       <c r="D5">
-        <v>0.0109717446100106</v>
+        <v>0.01086352450517225</v>
       </c>
       <c r="E5">
-        <v>0.02849081149290811</v>
+        <v>0.02848000400820183</v>
       </c>
       <c r="F5">
-        <v>1.641983102761941</v>
+        <v>1.638576250216644</v>
       </c>
       <c r="G5">
-        <v>1.301475736149087</v>
+        <v>0.4333958744850861</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8685150148431831</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.152437996258442</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05004794625391007</v>
+        <v>6.152015945352161</v>
       </c>
       <c r="L5">
-        <v>3.692490667695395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.05003821005133702</v>
+      </c>
+      <c r="M5">
+        <v>3.692257134207821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07560389173144699</v>
+        <v>0.07559771837753715</v>
       </c>
       <c r="D6">
-        <v>0.0108663240277167</v>
+        <v>0.01075911724280942</v>
       </c>
       <c r="E6">
-        <v>0.02840209728380216</v>
+        <v>0.0283913583545079</v>
       </c>
       <c r="F6">
-        <v>1.629139595569868</v>
+        <v>1.625760888560549</v>
       </c>
       <c r="G6">
-        <v>1.291256478601497</v>
+        <v>0.4297196982044227</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.862008187728776</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.10547187696227</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.04974466360997454</v>
+        <v>6.105059189117412</v>
       </c>
       <c r="L6">
-        <v>3.664157838853299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.0497350392430036</v>
+      </c>
+      <c r="M6">
+        <v>3.663929839694703</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07973813059761881</v>
+        <v>0.07973105787115742</v>
       </c>
       <c r="D7">
-        <v>0.01166805201276233</v>
+        <v>0.01155358970366294</v>
       </c>
       <c r="E7">
-        <v>0.0290273504825258</v>
+        <v>0.02901617341400353</v>
       </c>
       <c r="F7">
-        <v>1.719688234955839</v>
+        <v>1.716110951415686</v>
       </c>
       <c r="G7">
-        <v>1.363412803275168</v>
+        <v>0.4556402637838772</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9079884706542032</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.432590133479692</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.0518550030243965</v>
+        <v>6.432110090503869</v>
       </c>
       <c r="L7">
-        <v>3.861583444673713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.05184460921196887</v>
+      </c>
+      <c r="M7">
+        <v>3.861315501775124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09910794839890968</v>
+        <v>0.09909587956579458</v>
       </c>
       <c r="D8">
-        <v>0.01721065969699964</v>
+        <v>0.01705763364055812</v>
       </c>
       <c r="E8">
-        <v>0.03204648566767077</v>
+        <v>0.03203440659753376</v>
       </c>
       <c r="F8">
-        <v>2.159375773427456</v>
+        <v>2.154825795372162</v>
       </c>
       <c r="G8">
-        <v>1.716853003500006</v>
+        <v>0.5816249101349058</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.134202641241799</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.909783375122714</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.06132152861060192</v>
+        <v>7.908934444520469</v>
       </c>
       <c r="L8">
-        <v>4.755595107914132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.06130789841546402</v>
+      </c>
+      <c r="M8">
+        <v>4.755104571214559</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1431221720161062</v>
+        <v>0.1430929638893872</v>
       </c>
       <c r="D9">
-        <v>0.0387544010293901</v>
+        <v>0.03848773784462622</v>
       </c>
       <c r="E9">
-        <v>0.0392148646046504</v>
+        <v>0.03920588521626378</v>
       </c>
       <c r="F9">
-        <v>3.233981291201758</v>
+        <v>3.226944784111254</v>
       </c>
       <c r="G9">
-        <v>2.595349520649421</v>
+        <v>0.8905050832258325</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.700715631935211</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.00101663638168</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.08074148753736665</v>
+        <v>10.99900259440867</v>
       </c>
       <c r="L9">
-        <v>6.638975206140032</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.08072190092124742</v>
+      </c>
+      <c r="M9">
+        <v>6.637762241419836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1818887705809402</v>
+        <v>0.1818358519927159</v>
       </c>
       <c r="D10">
-        <v>0.06607022366314652</v>
+        <v>0.06567324959383569</v>
       </c>
       <c r="E10">
-        <v>0.04566495274452009</v>
+        <v>0.04566267826896464</v>
       </c>
       <c r="F10">
-        <v>4.248451913017362</v>
+        <v>4.238854037332715</v>
       </c>
       <c r="G10">
-        <v>3.437280095607761</v>
+        <v>1.18333621293381</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.246714798954585</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>13.49147408405514</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.09593472664887415</v>
+        <v>13.48802634829843</v>
       </c>
       <c r="L10">
-        <v>8.168500536785388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.09591059600998264</v>
+      </c>
+      <c r="M10">
+        <v>8.166381441342594</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2018933180473681</v>
+        <v>0.2018241002601258</v>
       </c>
       <c r="D11">
-        <v>0.08281259382922457</v>
+        <v>0.08233611696170584</v>
       </c>
       <c r="E11">
-        <v>0.04899915834582913</v>
+        <v>0.04900133900973458</v>
       </c>
       <c r="F11">
-        <v>4.792853728528684</v>
+        <v>4.781768347647215</v>
       </c>
       <c r="G11">
-        <v>3.892790273231185</v>
+        <v>1.340929345902509</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.542872602224747</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>14.70709611347007</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.1031817880483032</v>
+        <v>14.7027366897558</v>
       </c>
       <c r="L11">
-        <v>8.919147109445504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.1031553386617077</v>
+      </c>
+      <c r="M11">
+        <v>8.916446442462757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2099374914517966</v>
+        <v>0.2098607952073621</v>
       </c>
       <c r="D12">
-        <v>0.0900201622304877</v>
+        <v>0.08950910721052452</v>
       </c>
       <c r="E12">
-        <v>0.05033727370356544</v>
+        <v>0.05034139202067678</v>
       </c>
       <c r="F12">
-        <v>5.015453661069785</v>
+        <v>5.003733268274743</v>
       </c>
       <c r="G12">
-        <v>4.079679374247391</v>
+        <v>1.405451341820992</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.664497342938915</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>15.18386252706551</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.1059910348084152</v>
+        <v>15.17909939312153</v>
       </c>
       <c r="L12">
-        <v>9.214305329629354</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.1059636330151079</v>
+      </c>
+      <c r="M12">
+        <v>9.211346153804499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2081814874406689</v>
+        <v>0.2081064721836299</v>
       </c>
       <c r="D13">
-        <v>0.08842403202076099</v>
+        <v>0.08792065915878311</v>
       </c>
       <c r="E13">
-        <v>0.05004535973419522</v>
+        <v>0.05004904871682214</v>
       </c>
       <c r="F13">
-        <v>4.966685822792357</v>
+        <v>4.955105969679636</v>
       </c>
       <c r="G13">
-        <v>4.038705265907282</v>
+        <v>1.391311635486616</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.637826806137397</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>15.08035654699034</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.1053827855083327</v>
+        <v>15.07568345352234</v>
       </c>
       <c r="L13">
-        <v>9.150189725695441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.1053555930772809</v>
+      </c>
+      <c r="M13">
+        <v>9.147288252485453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2025447735232717</v>
+        <v>0.2024749709181037</v>
       </c>
       <c r="D14">
-        <v>0.08338632947021551</v>
+        <v>0.0829071100798231</v>
       </c>
       <c r="E14">
-        <v>0.04910760268508696</v>
+        <v>0.04910993742432268</v>
       </c>
       <c r="F14">
-        <v>4.810804005918044</v>
+        <v>4.799668024563971</v>
       </c>
       <c r="G14">
-        <v>3.907847754310595</v>
+        <v>1.346130584703076</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.552669504055515</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>14.74595723612987</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.1034114853311827</v>
+        <v>14.74156594256911</v>
       </c>
       <c r="L14">
-        <v>8.943189257935217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.1033849594044192</v>
+      </c>
+      <c r="M14">
+        <v>8.940468203720116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1991579809998711</v>
+        <v>0.1990911798392005</v>
       </c>
       <c r="D15">
-        <v>0.08042292673904683</v>
+        <v>0.07995785629035623</v>
       </c>
       <c r="E15">
-        <v>0.0485436931235057</v>
+        <v>0.04854523259941956</v>
       </c>
       <c r="F15">
-        <v>4.717633594931328</v>
+        <v>4.706759128316151</v>
       </c>
       <c r="G15">
-        <v>3.829717871010473</v>
+        <v>1.319137105555342</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.501840135366365</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>14.54343748126257</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.1022130720962231</v>
+        <v>14.53921032127403</v>
       </c>
       <c r="L15">
-        <v>8.817927885323343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.1021869431168732</v>
+      </c>
+      <c r="M15">
+        <v>8.815311789392297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1806388357519637</v>
+        <v>0.1805868348695725</v>
       </c>
       <c r="D16">
-        <v>0.0650815394113522</v>
+        <v>0.06468924089357841</v>
       </c>
       <c r="E16">
-        <v>0.04545648857868301</v>
+        <v>0.04545395513858352</v>
       </c>
       <c r="F16">
-        <v>4.214885158877962</v>
+        <v>4.205376173662188</v>
       </c>
       <c r="G16">
-        <v>3.40927121998908</v>
+        <v>1.173629185557701</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.228519007241132</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>13.41404078502714</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.09546915326780692</v>
+        <v>13.41064588302245</v>
       </c>
       <c r="L16">
-        <v>8.120777549487144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.09544516642904455</v>
+      </c>
+      <c r="M16">
+        <v>8.118692050159495</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.169960023215765</v>
+        <v>0.1699154183190643</v>
       </c>
       <c r="D17">
-        <v>0.05691884351293197</v>
+        <v>0.05656515859590883</v>
       </c>
       <c r="E17">
-        <v>0.04367583117904772</v>
+        <v>0.04367119032430011</v>
       </c>
       <c r="F17">
-        <v>3.930347489965442</v>
+        <v>3.921579852178695</v>
       </c>
       <c r="G17">
-        <v>3.172233271783071</v>
+        <v>1.091392613470433</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.074606348534431</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.74505734065485</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.09142796591768843</v>
+        <v>12.74209511373758</v>
       </c>
       <c r="L17">
-        <v>7.708927220509395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.09140520913466688</v>
+      </c>
+      <c r="M17">
+        <v>7.707116340323807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1640308646195479</v>
+        <v>0.1639900378055046</v>
       </c>
       <c r="D18">
-        <v>0.05261066187032526</v>
+        <v>0.05227741171786704</v>
       </c>
       <c r="E18">
-        <v>0.04268791530062543</v>
+        <v>0.0426821910555919</v>
       </c>
       <c r="F18">
-        <v>3.774138852294499</v>
+        <v>3.765769370204879</v>
       </c>
       <c r="G18">
-        <v>3.042409274194128</v>
+        <v>1.046282447218573</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.990372971522973</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.36770691427012</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.08913389363370428</v>
+        <v>12.36497087575614</v>
       </c>
       <c r="L18">
-        <v>7.476970707040238</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.08911182391631201</v>
+      </c>
+      <c r="M18">
+        <v>7.475302991758809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1620568668584497</v>
+        <v>0.1620172482536475</v>
       </c>
       <c r="D19">
-        <v>0.05121258547958973</v>
+        <v>0.05088598331442995</v>
       </c>
       <c r="E19">
-        <v>0.04235921058736203</v>
+        <v>0.04235314032517046</v>
       </c>
       <c r="F19">
-        <v>3.722420871737114</v>
+        <v>3.714181896814466</v>
       </c>
       <c r="G19">
-        <v>2.999477227954273</v>
+        <v>1.031353143096268</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.962528199505641</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.24110909102316</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.08836195352775889</v>
+        <v>12.23844619707398</v>
       </c>
       <c r="L19">
-        <v>7.399208041869798</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.08834011370045403</v>
+      </c>
+      <c r="M19">
+        <v>7.39758655881414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1710739973499642</v>
+        <v>0.1710286570937427</v>
       </c>
       <c r="D20">
-        <v>0.05774630396463465</v>
+        <v>0.05738870073339086</v>
       </c>
       <c r="E20">
-        <v>0.04386152239141694</v>
+        <v>0.04385709223196343</v>
       </c>
       <c r="F20">
-        <v>3.959839325617139</v>
+        <v>3.950995831259036</v>
       </c>
       <c r="G20">
-        <v>3.196768827111441</v>
+        <v>1.099912282460195</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.09053095066426</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.81547562627964</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.09185491869495976</v>
+        <v>12.81246980117709</v>
       </c>
       <c r="L20">
-        <v>7.752241344145148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.09183203327959433</v>
+      </c>
+      <c r="M20">
+        <v>7.750402835767915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2041863703258286</v>
+        <v>0.2041150780214309</v>
       </c>
       <c r="D21">
-        <v>0.08483990690194076</v>
+        <v>0.08435373198378926</v>
       </c>
       <c r="E21">
-        <v>0.0493808145638539</v>
+        <v>0.0493835398387894</v>
       </c>
       <c r="F21">
-        <v>4.856097233180748</v>
+        <v>4.844833107710485</v>
       </c>
       <c r="G21">
-        <v>3.945852038951486</v>
+        <v>1.359256049054466</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.577398191274995</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.84368595059217</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.1039885749902218</v>
+        <v>14.83921371159863</v>
       </c>
       <c r="L21">
-        <v>9.003663531313293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.1039618557650144</v>
+      </c>
+      <c r="M21">
+        <v>9.000890680237575</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2286708130710196</v>
+        <v>0.2285743690470383</v>
       </c>
       <c r="D22">
-        <v>0.1078235662559166</v>
+        <v>0.1072256419606035</v>
       </c>
       <c r="E22">
-        <v>0.05344283732278754</v>
+        <v>0.05345172910330476</v>
       </c>
       <c r="F22">
-        <v>5.541655813727431</v>
+        <v>5.528364718773759</v>
       </c>
       <c r="G22">
-        <v>4.522801770294052</v>
+        <v>1.558157662771308</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.953098259239084</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.268903351348</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.1123105931671269</v>
+        <v>16.2631092278117</v>
       </c>
       <c r="L22">
-        <v>9.887671447166213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.1122808898544143</v>
+      </c>
+      <c r="M22">
+        <v>9.884049837588549</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2152828598728576</v>
+        <v>0.2152008737814555</v>
       </c>
       <c r="D23">
-        <v>0.09495629764285241</v>
+        <v>0.09442138510477349</v>
       </c>
       <c r="E23">
-        <v>0.0512251201137488</v>
+        <v>0.05123056582067065</v>
       </c>
       <c r="F23">
-        <v>5.164500320539645</v>
+        <v>5.152345296042569</v>
       </c>
       <c r="G23">
-        <v>4.205007771691072</v>
+        <v>1.448679638921604</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.746092210683216</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>15.49701355338928</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.1078256251899177</v>
+        <v>15.49196956987009</v>
       </c>
       <c r="L23">
-        <v>9.408408449553207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.1077975802296507</v>
+      </c>
+      <c r="M23">
+        <v>9.40526912719838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1705697235777848</v>
+        <v>0.1705247172209425</v>
       </c>
       <c r="D24">
-        <v>0.05737102772771863</v>
+        <v>0.05701520136123861</v>
       </c>
       <c r="E24">
-        <v>0.04377746110786873</v>
+        <v>0.04377293529733706</v>
       </c>
       <c r="F24">
-        <v>3.946483401224611</v>
+        <v>3.937674287358163</v>
       </c>
       <c r="G24">
-        <v>3.185656475915209</v>
+        <v>1.096053876314073</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.083318368445745</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.78361722703653</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.09166180336362828</v>
+        <v>12.78063118157985</v>
       </c>
       <c r="L24">
-        <v>7.732644217036295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.0916389761631855</v>
+      </c>
+      <c r="M24">
+        <v>7.730818244304913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1303347114691888</v>
+        <v>0.1303114218644339</v>
       </c>
       <c r="D25">
-        <v>0.03136537849804455</v>
+        <v>0.03113538459851029</v>
       </c>
       <c r="E25">
-        <v>0.03710535894846245</v>
+        <v>0.03709488849621856</v>
       </c>
       <c r="F25">
-        <v>2.912422910609109</v>
+        <v>2.906150980539593</v>
       </c>
       <c r="G25">
-        <v>2.330759564493761</v>
+        <v>0.7979309020138174</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.529643841154325</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.1352802388918</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.07536096432035677</v>
+        <v>10.13365262239819</v>
       </c>
       <c r="L25">
-        <v>6.10983263359455</v>
+        <v>0.07534297507800503</v>
+      </c>
+      <c r="M25">
+        <v>6.108861281601833</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1046741859132823</v>
+        <v>0.1658980724922685</v>
       </c>
       <c r="D2">
-        <v>0.01913463958396733</v>
+        <v>0.5666699916886557</v>
       </c>
       <c r="E2">
-        <v>0.03292493164445887</v>
+        <v>0.1607613381273616</v>
       </c>
       <c r="F2">
-        <v>2.285407588938881</v>
+        <v>7.449395343948737</v>
       </c>
       <c r="G2">
-        <v>0.61916789585419</v>
+        <v>0.0006886246358042136</v>
       </c>
       <c r="H2">
-        <v>1.202303488411573</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04587860087347906</v>
       </c>
       <c r="K2">
-        <v>8.319395518995321</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0639183717685583</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.004219457632615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>6.785175648926554</v>
+      </c>
+      <c r="N2">
+        <v>2.556722858297974</v>
+      </c>
+      <c r="O2">
+        <v>6.708747307467348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08889174963690039</v>
+        <v>0.1390158568242583</v>
       </c>
       <c r="D3">
-        <v>0.01380962421592002</v>
+        <v>0.4748743582217685</v>
       </c>
       <c r="E3">
-        <v>0.03042764878545512</v>
+        <v>0.139040487311906</v>
       </c>
       <c r="F3">
-        <v>1.920656470419956</v>
+        <v>6.342670224159008</v>
       </c>
       <c r="G3">
-        <v>0.5143520225903018</v>
+        <v>0.0007134517671910845</v>
       </c>
       <c r="H3">
-        <v>1.012908654896279</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.04480070617209009</v>
       </c>
       <c r="K3">
-        <v>7.141435799029011</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.05640319301518204</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.290108117573638</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>5.804077906742464</v>
+      </c>
+      <c r="N3">
+        <v>2.3170181536847</v>
+      </c>
+      <c r="O3">
+        <v>5.688078223304615</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07977996532034126</v>
+        <v>0.1235284076664982</v>
       </c>
       <c r="D4">
-        <v>0.01156385405823457</v>
+        <v>0.421969324080095</v>
       </c>
       <c r="E4">
-        <v>0.0290236155671959</v>
+        <v>0.1262265563746432</v>
       </c>
       <c r="F4">
-        <v>1.717187546356044</v>
+        <v>5.718043944472242</v>
       </c>
       <c r="G4">
-        <v>0.4559491728784337</v>
+        <v>0.0007285219582970988</v>
       </c>
       <c r="H4">
-        <v>0.9085378106445035</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.04415499108931797</v>
       </c>
       <c r="K4">
-        <v>6.435952648053359</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05186936669097975</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.863635819847048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>5.225800352417195</v>
+      </c>
+      <c r="N4">
+        <v>2.171562478433543</v>
+      </c>
+      <c r="O4">
+        <v>5.110431634076377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07618758125862257</v>
+        <v>0.1174168943934291</v>
       </c>
       <c r="D5">
-        <v>0.01086352450517225</v>
+        <v>0.4010805722928694</v>
       </c>
       <c r="E5">
-        <v>0.02848000400820183</v>
+        <v>0.1211036663865208</v>
       </c>
       <c r="F5">
-        <v>1.638576250216644</v>
+        <v>5.474485498397001</v>
       </c>
       <c r="G5">
-        <v>0.4333958744850861</v>
+        <v>0.0007346510308914542</v>
       </c>
       <c r="H5">
-        <v>0.8685150148431831</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0438967130272836</v>
       </c>
       <c r="K5">
-        <v>6.152015945352161</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05003821005133702</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.692257134207821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4.99485951155981</v>
+      </c>
+      <c r="N5">
+        <v>2.112673476939477</v>
+      </c>
+      <c r="O5">
+        <v>4.884816738022948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07559771837753715</v>
+        <v>0.1164127592609105</v>
       </c>
       <c r="D6">
-        <v>0.01075911724280942</v>
+        <v>0.397647631244908</v>
       </c>
       <c r="E6">
-        <v>0.0283913583545079</v>
+        <v>0.1202581938300895</v>
       </c>
       <c r="F6">
-        <v>1.625760888560549</v>
+        <v>5.434636443807989</v>
       </c>
       <c r="G6">
-        <v>0.4297196982044227</v>
+        <v>0.0007356688026175924</v>
       </c>
       <c r="H6">
-        <v>0.862008187728776</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.04385413960014972</v>
       </c>
       <c r="K6">
-        <v>6.105059189117412</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0497350392430036</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.663929839694703</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4.9567632407921</v>
+      </c>
+      <c r="N6">
+        <v>2.102916998076466</v>
+      </c>
+      <c r="O6">
+        <v>4.847881400932437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07973105787115742</v>
+        <v>0.1234452411841147</v>
       </c>
       <c r="D7">
-        <v>0.01155358970366294</v>
+        <v>0.4216851224406923</v>
       </c>
       <c r="E7">
-        <v>0.02901617341400353</v>
+        <v>0.1261571037093319</v>
       </c>
       <c r="F7">
-        <v>1.716110951415686</v>
+        <v>5.71471799203195</v>
       </c>
       <c r="G7">
-        <v>0.4556402637838772</v>
+        <v>0.0007286046302469585</v>
       </c>
       <c r="H7">
-        <v>0.9079884706542032</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.04415148726669216</v>
       </c>
       <c r="K7">
-        <v>6.432110090503869</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.05184460921196887</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.861315501775124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>5.222668268976776</v>
+      </c>
+      <c r="N7">
+        <v>2.170766779159379</v>
+      </c>
+      <c r="O7">
+        <v>5.107352225298172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.09909587956579458</v>
+        <v>0.156378811715669</v>
       </c>
       <c r="D8">
-        <v>0.01705763364055812</v>
+        <v>0.5341630701774989</v>
       </c>
       <c r="E8">
-        <v>0.03203440659753376</v>
+        <v>0.1531408030551233</v>
       </c>
       <c r="F8">
-        <v>2.154825795372162</v>
+        <v>7.054449538889571</v>
       </c>
       <c r="G8">
-        <v>0.5816249101349058</v>
+        <v>0.0006972428775944183</v>
       </c>
       <c r="H8">
-        <v>1.134202641241799</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.04550414331096064</v>
       </c>
       <c r="K8">
-        <v>7.908934444520469</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.06130789841546402</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>4.755104571214559</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6.440951367062894</v>
+      </c>
+      <c r="N8">
+        <v>2.473683573822512</v>
+      </c>
+      <c r="O8">
+        <v>6.344876939853549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1430929638893872</v>
+        <v>0.2327592162444745</v>
       </c>
       <c r="D9">
-        <v>0.03848773784462622</v>
+        <v>0.7954749396032526</v>
       </c>
       <c r="E9">
-        <v>0.03920588521626378</v>
+        <v>0.212407011877886</v>
       </c>
       <c r="F9">
-        <v>3.226944784111254</v>
+        <v>10.30351050543305</v>
       </c>
       <c r="G9">
-        <v>0.8905050832258325</v>
+        <v>0.0006322841695219489</v>
       </c>
       <c r="H9">
-        <v>1.700715631935211</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.04823500623338361</v>
       </c>
       <c r="K9">
-        <v>10.99900259440867</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.08072190092124742</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>6.637762241419836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9.110827522351343</v>
+      </c>
+      <c r="N9">
+        <v>3.084018740999426</v>
+      </c>
+      <c r="O9">
+        <v>9.329290410691357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1818358519927159</v>
+        <v>0.305105456593239</v>
       </c>
       <c r="D10">
-        <v>0.06567324959383569</v>
+        <v>1.04524643315753</v>
       </c>
       <c r="E10">
-        <v>0.04566267826896464</v>
+        <v>0.2653661718499265</v>
       </c>
       <c r="F10">
-        <v>4.238854037332715</v>
+        <v>13.52150225323231</v>
       </c>
       <c r="G10">
-        <v>1.18333621293381</v>
+        <v>0.0005773950370619966</v>
       </c>
       <c r="H10">
-        <v>2.246714798954585</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.05018478599421528</v>
       </c>
       <c r="K10">
-        <v>13.48802634829843</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.09591059600998264</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>8.166381441342594</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11.46103648824746</v>
+      </c>
+      <c r="N10">
+        <v>3.547019384474254</v>
+      </c>
+      <c r="O10">
+        <v>12.27139134856898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2018241002601258</v>
+        <v>0.3463435670519885</v>
       </c>
       <c r="D11">
-        <v>0.08233611696170584</v>
+        <v>1.189341093420381</v>
       </c>
       <c r="E11">
-        <v>0.04900133900973458</v>
+        <v>0.2945769919831633</v>
       </c>
       <c r="F11">
-        <v>4.781768347647215</v>
+        <v>15.40553994332481</v>
       </c>
       <c r="G11">
-        <v>1.340929345902509</v>
+        <v>0.0005481779926990072</v>
       </c>
       <c r="H11">
-        <v>2.542872602224747</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.05101777016600906</v>
       </c>
       <c r="K11">
-        <v>14.7027366897558</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1031553386617077</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>8.916446442462757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12.73002988464413</v>
+      </c>
+      <c r="N11">
+        <v>3.762244314814893</v>
+      </c>
+      <c r="O11">
+        <v>13.99027225313657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2098607952073621</v>
+        <v>0.3641814578330269</v>
       </c>
       <c r="D12">
-        <v>0.08950910721052452</v>
+        <v>1.252183924655412</v>
       </c>
       <c r="E12">
-        <v>0.05034139202067678</v>
+        <v>0.3070526939588092</v>
       </c>
       <c r="F12">
-        <v>5.003733268274743</v>
+        <v>16.23048700031069</v>
       </c>
       <c r="G12">
-        <v>1.405451341820992</v>
+        <v>0.0005359277453413263</v>
       </c>
       <c r="H12">
-        <v>2.664497342938915</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.05131940969998539</v>
       </c>
       <c r="K12">
-        <v>15.17909939312153</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1059636330151079</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>9.211346153804499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13.26391172503867</v>
+      </c>
+      <c r="N12">
+        <v>3.844568279236967</v>
+      </c>
+      <c r="O12">
+        <v>14.74237678850503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2081064721836299</v>
+        <v>0.3602099403560004</v>
       </c>
       <c r="D13">
-        <v>0.08792065915878311</v>
+        <v>1.238162409403429</v>
       </c>
       <c r="E13">
-        <v>0.05004904871682214</v>
+        <v>0.3042820453474775</v>
       </c>
       <c r="F13">
-        <v>4.955105969679636</v>
+        <v>16.04631605297459</v>
       </c>
       <c r="G13">
-        <v>1.391311635486616</v>
+        <v>0.0005386362635026409</v>
       </c>
       <c r="H13">
-        <v>2.637826806137397</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.05125518780804228</v>
       </c>
       <c r="K13">
-        <v>15.07568345352234</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1053555930772809</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>9.147288252485453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13.14581452610147</v>
+      </c>
+      <c r="N13">
+        <v>3.826798746087348</v>
+      </c>
+      <c r="O13">
+        <v>14.57448966081137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2024749709181037</v>
+        <v>0.3477561498074664</v>
       </c>
       <c r="D14">
-        <v>0.0829071100798231</v>
+        <v>1.194305332601601</v>
       </c>
       <c r="E14">
-        <v>0.04910993742432268</v>
+        <v>0.2955680234522191</v>
       </c>
       <c r="F14">
-        <v>4.799668024563971</v>
+        <v>15.47065467572946</v>
       </c>
       <c r="G14">
-        <v>1.346130584703076</v>
+        <v>0.0005471997989962212</v>
       </c>
       <c r="H14">
-        <v>2.552669504055515</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.05104290790499988</v>
       </c>
       <c r="K14">
-        <v>14.74156594256911</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1033849594044192</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>8.940468203720116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12.77263347896087</v>
+      </c>
+      <c r="N14">
+        <v>3.768999594457767</v>
+      </c>
+      <c r="O14">
+        <v>14.049647006681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1990911798392005</v>
+        <v>0.3404678672778942</v>
       </c>
       <c r="D15">
-        <v>0.07995785629035623</v>
+        <v>1.168713761756862</v>
       </c>
       <c r="E15">
-        <v>0.04854523259941956</v>
+        <v>0.2904486159593986</v>
       </c>
       <c r="F15">
-        <v>4.706759128316151</v>
+        <v>15.13509214277929</v>
       </c>
       <c r="G15">
-        <v>1.319137105555342</v>
+        <v>0.0005522622026647786</v>
       </c>
       <c r="H15">
-        <v>2.501840135366365</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.05091085402759177</v>
       </c>
       <c r="K15">
-        <v>14.53921032127403</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1021869431168732</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>8.815311789392297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>12.55221218159571</v>
+      </c>
+      <c r="N15">
+        <v>3.733708615756541</v>
+      </c>
+      <c r="O15">
+        <v>13.74364520807961</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1805868348695725</v>
+        <v>0.3026429953193741</v>
       </c>
       <c r="D16">
-        <v>0.06468924089357841</v>
+        <v>1.036688193263387</v>
       </c>
       <c r="E16">
-        <v>0.04545395513858352</v>
+        <v>0.2636027118831024</v>
       </c>
       <c r="F16">
-        <v>4.205376173662188</v>
+        <v>13.41007156827266</v>
       </c>
       <c r="G16">
-        <v>1.173629185557701</v>
+        <v>0.0005791824985140004</v>
       </c>
       <c r="H16">
-        <v>2.228519007241132</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.05012881160464389</v>
       </c>
       <c r="K16">
-        <v>13.41064588302245</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.09544516642904455</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>8.118692050159495</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>11.38368746502289</v>
+      </c>
+      <c r="N16">
+        <v>3.533059359245954</v>
+      </c>
+      <c r="O16">
+        <v>12.16966259967955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1699154183190643</v>
+        <v>0.2820275906167922</v>
       </c>
       <c r="D17">
-        <v>0.05656515859590883</v>
+        <v>0.9652162091399816</v>
       </c>
       <c r="E17">
-        <v>0.04367119032430011</v>
+        <v>0.2487412759519145</v>
       </c>
       <c r="F17">
-        <v>3.921579852178695</v>
+        <v>12.48219196618447</v>
       </c>
       <c r="G17">
-        <v>1.091392613470433</v>
+        <v>0.0005943534851260054</v>
       </c>
       <c r="H17">
-        <v>2.074606348534431</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.04963179451478794</v>
       </c>
       <c r="K17">
-        <v>12.74209511373758</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.09140520913466688</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>7.707116340323807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10.72898402706292</v>
+      </c>
+      <c r="N17">
+        <v>3.411247934412046</v>
+      </c>
+      <c r="O17">
+        <v>11.3222159680243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1639900378055046</v>
+        <v>0.270867509137716</v>
       </c>
       <c r="D18">
-        <v>0.05227741171786704</v>
+        <v>0.9266462697315774</v>
       </c>
       <c r="E18">
-        <v>0.0426821910555919</v>
+        <v>0.2406178330160174</v>
       </c>
       <c r="F18">
-        <v>3.765769370204879</v>
+        <v>11.98373641507339</v>
       </c>
       <c r="G18">
-        <v>1.046282447218573</v>
+        <v>0.0006027282072272462</v>
       </c>
       <c r="H18">
-        <v>1.990372971522973</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.04934133456147904</v>
       </c>
       <c r="K18">
-        <v>12.36497087575614</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.08911182391631201</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>7.475302991758809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10.36915264454754</v>
+      </c>
+      <c r="N18">
+        <v>3.341606547954768</v>
+      </c>
+      <c r="O18">
+        <v>10.86667847273782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1620172482536475</v>
+        <v>0.2671914414179923</v>
       </c>
       <c r="D19">
-        <v>0.05088598331442995</v>
+        <v>0.9139585697587336</v>
       </c>
       <c r="E19">
-        <v>0.04235314032517046</v>
+        <v>0.2379291449574055</v>
       </c>
       <c r="F19">
-        <v>3.714181896814466</v>
+        <v>11.82016023784536</v>
       </c>
       <c r="G19">
-        <v>1.031353143096268</v>
+        <v>0.0006055130775806033</v>
       </c>
       <c r="H19">
-        <v>1.962528199505641</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.04924234030889352</v>
       </c>
       <c r="K19">
-        <v>12.23844619707398</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.08834011370045403</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>7.39758655881414</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>10.24978054028185</v>
+      </c>
+      <c r="N19">
+        <v>3.318095327571086</v>
+      </c>
+      <c r="O19">
+        <v>10.71713749184028</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1710286570937427</v>
+        <v>0.2841455450012234</v>
       </c>
       <c r="D20">
-        <v>0.05738870073339086</v>
+        <v>0.9725451633494515</v>
       </c>
       <c r="E20">
-        <v>0.04385709223196343</v>
+        <v>0.2502765085493266</v>
       </c>
       <c r="F20">
-        <v>3.950995831259036</v>
+        <v>12.57709913923924</v>
       </c>
       <c r="G20">
-        <v>1.099912282460195</v>
+        <v>0.0005927773353155034</v>
       </c>
       <c r="H20">
-        <v>2.09053095066426</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.04968521225092815</v>
       </c>
       <c r="K20">
-        <v>12.81246980117709</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.09183203327959433</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>7.750402835767915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>10.79684001235691</v>
+      </c>
+      <c r="N20">
+        <v>3.424170336205947</v>
+      </c>
+      <c r="O20">
+        <v>11.40892715557035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2041150780214309</v>
+        <v>0.3513393315407853</v>
       </c>
       <c r="D21">
-        <v>0.08435373198378926</v>
+        <v>1.206906948464109</v>
       </c>
       <c r="E21">
-        <v>0.0493835398387894</v>
+        <v>0.298079411631953</v>
       </c>
       <c r="F21">
-        <v>4.844833107710485</v>
+        <v>15.63599158065767</v>
       </c>
       <c r="G21">
-        <v>1.359256049054466</v>
+        <v>0.0005447248371961422</v>
       </c>
       <c r="H21">
-        <v>2.577398191274995</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.0511056969986079</v>
       </c>
       <c r="K21">
-        <v>14.83921371159863</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1039618557650144</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>9.000890680237575</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>12.88045015233573</v>
+      </c>
+      <c r="N21">
+        <v>3.785952782955576</v>
+      </c>
+      <c r="O21">
+        <v>14.20040129591752</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2285743690470383</v>
+        <v>0.4102112257639732</v>
       </c>
       <c r="D22">
-        <v>0.1072256419606035</v>
+        <v>1.416103946173791</v>
       </c>
       <c r="E22">
-        <v>0.05345172910330476</v>
+        <v>0.3389395945293714</v>
       </c>
       <c r="F22">
-        <v>5.528364718773759</v>
+        <v>18.38504581928407</v>
       </c>
       <c r="G22">
-        <v>1.558157662771308</v>
+        <v>0.0005052732654984293</v>
       </c>
       <c r="H22">
-        <v>2.953098259239084</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.05194892998956746</v>
       </c>
       <c r="K22">
-        <v>16.2631092278117</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1122808898544143</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>9.884049837588549</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.60125382436328</v>
+      </c>
+      <c r="N22">
+        <v>4.027289795292063</v>
+      </c>
+      <c r="O22">
+        <v>16.70580718936503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2152008737814555</v>
+        <v>0.3765772395235416</v>
       </c>
       <c r="D23">
-        <v>0.09442138510477349</v>
+        <v>1.296064065414697</v>
       </c>
       <c r="E23">
-        <v>0.05123056582067065</v>
+        <v>0.3156773389920176</v>
       </c>
       <c r="F23">
-        <v>5.152345296042569</v>
+        <v>16.80712087226709</v>
       </c>
       <c r="G23">
-        <v>1.448679638921604</v>
+        <v>0.0005275413888397141</v>
       </c>
       <c r="H23">
-        <v>2.746092210683216</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.05150934656107253</v>
       </c>
       <c r="K23">
-        <v>15.49196956987009</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1077975802296507</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>9.40526912719838</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13.62971187485621</v>
+      </c>
+      <c r="N23">
+        <v>3.897975495310078</v>
+      </c>
+      <c r="O23">
+        <v>15.26795842464054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1705247172209425</v>
+        <v>0.2831859188272432</v>
       </c>
       <c r="D24">
-        <v>0.05701520136123861</v>
+        <v>0.9692241058513389</v>
       </c>
       <c r="E24">
-        <v>0.04377293529733706</v>
+        <v>0.2495811566328143</v>
       </c>
       <c r="F24">
-        <v>3.937674287358163</v>
+        <v>12.53408541826207</v>
       </c>
       <c r="G24">
-        <v>1.096053876314073</v>
+        <v>0.0005934909625942128</v>
       </c>
       <c r="H24">
-        <v>2.083318368445745</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.04966107638142248</v>
       </c>
       <c r="K24">
-        <v>12.78063118157985</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0916389761631855</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>7.730818244304913</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>10.76611207560973</v>
+      </c>
+      <c r="N24">
+        <v>3.418326916308416</v>
+      </c>
+      <c r="O24">
+        <v>11.36962893781288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1303114218644339</v>
+        <v>0.2101727226793457</v>
       </c>
       <c r="D25">
-        <v>0.03113538459851029</v>
+        <v>0.7180408531378646</v>
       </c>
       <c r="E25">
-        <v>0.03709488849621856</v>
+        <v>0.1952972974111162</v>
       </c>
       <c r="F25">
-        <v>2.906150980539593</v>
+        <v>9.324925811424521</v>
       </c>
       <c r="G25">
-        <v>0.7979309020138174</v>
+        <v>0.0006505968756231906</v>
       </c>
       <c r="H25">
-        <v>1.529643841154325</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.04749625629378329</v>
       </c>
       <c r="K25">
-        <v>10.13365262239819</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.07534297507800503</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>6.108861281601833</v>
+        <v>8.342591761880215</v>
+      </c>
+      <c r="N25">
+        <v>2.916740714796873</v>
+      </c>
+      <c r="O25">
+        <v>8.43230281760836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1658980724922685</v>
+        <v>0.02606177234207152</v>
       </c>
       <c r="D2">
-        <v>0.5666699916886557</v>
+        <v>0.03112518696108424</v>
       </c>
       <c r="E2">
-        <v>0.1607613381273616</v>
+        <v>0.04402165370593636</v>
       </c>
       <c r="F2">
-        <v>7.449395343948737</v>
+        <v>4.225076795321257</v>
       </c>
       <c r="G2">
-        <v>0.0006886246358042136</v>
+        <v>4.378290899446995</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.26557038010526</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.14225373968209</v>
       </c>
       <c r="J2">
-        <v>0.04587860087347906</v>
+        <v>0.1425412037154885</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.09388494294499594</v>
       </c>
       <c r="M2">
-        <v>6.785175648926554</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.556722858297974</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>6.708747307467348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1390158568242583</v>
+        <v>0.02607501786474309</v>
       </c>
       <c r="D3">
-        <v>0.4748743582217685</v>
+        <v>0.02839745664848081</v>
       </c>
       <c r="E3">
-        <v>0.139040487311906</v>
+        <v>0.04252390249367366</v>
       </c>
       <c r="F3">
-        <v>6.342670224159008</v>
+        <v>3.735940898226687</v>
       </c>
       <c r="G3">
-        <v>0.0007134517671910845</v>
+        <v>3.835967127489027</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.018847085373437</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.775416392561866</v>
       </c>
       <c r="J3">
-        <v>0.04480070617209009</v>
+        <v>0.1309553926645535</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.08880871941660473</v>
       </c>
       <c r="M3">
-        <v>5.804077906742464</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>2.3170181536847</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
-        <v>5.688078223304615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1235284076664982</v>
+        <v>0.02610520870480215</v>
       </c>
       <c r="D4">
-        <v>0.421969324080095</v>
+        <v>0.02676829639623435</v>
       </c>
       <c r="E4">
-        <v>0.1262265563746432</v>
+        <v>0.04167932217493409</v>
       </c>
       <c r="F4">
-        <v>5.718043944472242</v>
+        <v>3.446648792676342</v>
       </c>
       <c r="G4">
-        <v>0.0007285219582970988</v>
+        <v>3.514594217692633</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.873250183024084</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.55841731679034</v>
       </c>
       <c r="J4">
-        <v>0.04415499108931797</v>
+        <v>0.1241836648172665</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.08588399711987904</v>
       </c>
       <c r="M4">
-        <v>5.225800352417195</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.171562478433543</v>
+        <v>6.187481969423061</v>
       </c>
       <c r="O4">
-        <v>5.110431634076377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1174168943934291</v>
+        <v>0.02612275342911374</v>
       </c>
       <c r="D5">
-        <v>0.4010805722928694</v>
+        <v>0.02611347600560876</v>
       </c>
       <c r="E5">
-        <v>0.1211036663865208</v>
+        <v>0.04135255609785204</v>
       </c>
       <c r="F5">
-        <v>5.474485498397001</v>
+        <v>3.331173010687536</v>
       </c>
       <c r="G5">
-        <v>0.0007346510308914542</v>
+        <v>3.386155382034048</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.81521203827117</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.471788330348474</v>
       </c>
       <c r="J5">
-        <v>0.0438967130272836</v>
+        <v>0.1215005976939878</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.08473594341408841</v>
       </c>
       <c r="M5">
-        <v>4.99485951155981</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>2.112673476939477</v>
+        <v>5.958052239810286</v>
       </c>
       <c r="O5">
-        <v>4.884816738022948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1164127592609105</v>
+        <v>0.02612597524112203</v>
       </c>
       <c r="D6">
-        <v>0.397647631244908</v>
+        <v>0.02600522741412092</v>
       </c>
       <c r="E6">
-        <v>0.1202581938300895</v>
+        <v>0.04129930865461695</v>
       </c>
       <c r="F6">
-        <v>5.434636443807989</v>
+        <v>3.312134306871457</v>
       </c>
       <c r="G6">
-        <v>0.0007356688026175924</v>
+        <v>3.364969885906902</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.805647925205619</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.457505021940335</v>
       </c>
       <c r="J6">
-        <v>0.04385413960014972</v>
+        <v>0.1210594377999357</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.08454783330626725</v>
       </c>
       <c r="M6">
-        <v>4.9567632407921</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>2.102916998076466</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>4.847881400932437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1234452411841147</v>
+        <v>0.02610542446515751</v>
       </c>
       <c r="D7">
-        <v>0.4216851224406923</v>
+        <v>0.02675943146028459</v>
       </c>
       <c r="E7">
-        <v>0.1261571037093319</v>
+        <v>0.04167484662080057</v>
       </c>
       <c r="F7">
-        <v>5.71471799203195</v>
+        <v>3.445082123082813</v>
       </c>
       <c r="G7">
-        <v>0.0007286046302469585</v>
+        <v>3.5128523208827</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.872462453629566</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.557242056207144</v>
       </c>
       <c r="J7">
-        <v>0.04415148726669216</v>
+        <v>0.1241471821876061</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.08586834231450879</v>
       </c>
       <c r="M7">
-        <v>5.222668268976776</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>2.170766779159379</v>
+        <v>6.184389112219776</v>
       </c>
       <c r="O7">
-        <v>5.107352225298172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.156378811715669</v>
+        <v>0.02606156243985147</v>
       </c>
       <c r="D8">
-        <v>0.5341630701774989</v>
+        <v>0.03017362454614769</v>
       </c>
       <c r="E8">
-        <v>0.1531408030551233</v>
+        <v>0.04348871515507646</v>
       </c>
       <c r="F8">
-        <v>7.054449538889571</v>
+        <v>4.053898494078624</v>
       </c>
       <c r="G8">
-        <v>0.0006972428775944183</v>
+        <v>4.188631257986145</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.179156571757687</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.013883027650195</v>
       </c>
       <c r="J8">
-        <v>0.04550414331096064</v>
+        <v>0.1384693094066023</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.09209189598586676</v>
       </c>
       <c r="M8">
-        <v>6.440951367062894</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>2.473683573822512</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
-        <v>6.344876939853549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2327592162444745</v>
+        <v>0.02616732581468817</v>
       </c>
       <c r="D9">
-        <v>0.7954749396032526</v>
+        <v>0.03736145937329738</v>
       </c>
       <c r="E9">
-        <v>0.212407011877886</v>
+        <v>0.04771820491553314</v>
       </c>
       <c r="F9">
-        <v>10.30351050543305</v>
+        <v>5.354567069081952</v>
       </c>
       <c r="G9">
-        <v>0.0006322841695219489</v>
+        <v>5.62704384423904</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.837276770165715</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.989140820601676</v>
       </c>
       <c r="J9">
-        <v>0.04823500623338361</v>
+        <v>0.1697728026758085</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1060585487994246</v>
       </c>
       <c r="M9">
-        <v>9.110827522351343</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>3.084018740999426</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>9.329290410691357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.305105456593239</v>
+        <v>0.02639149037057997</v>
       </c>
       <c r="D10">
-        <v>1.04524643315753</v>
+        <v>0.04316792440211614</v>
       </c>
       <c r="E10">
-        <v>0.2653661718499265</v>
+        <v>0.0513645882969076</v>
       </c>
       <c r="F10">
-        <v>13.52150225323231</v>
+        <v>6.407598398917571</v>
       </c>
       <c r="G10">
-        <v>0.0005773950370619966</v>
+        <v>6.78833983857163</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.372123926481379</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>4.778572460476568</v>
       </c>
       <c r="J10">
-        <v>0.05018478599421528</v>
+        <v>0.1955824589678485</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1177940953481311</v>
       </c>
       <c r="M10">
-        <v>11.46103648824746</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3.547019384474254</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>12.27139134856898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3463435670519885</v>
+        <v>0.02653432026309765</v>
       </c>
       <c r="D11">
-        <v>1.189341093420381</v>
+        <v>0.04599096119129342</v>
       </c>
       <c r="E11">
-        <v>0.2945769919831633</v>
+        <v>0.05317732684145504</v>
       </c>
       <c r="F11">
-        <v>15.40553994332481</v>
+        <v>6.917135116798732</v>
       </c>
       <c r="G11">
-        <v>0.0005481779926990072</v>
+        <v>7.349578255000779</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.631426789102534</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>5.160541781836145</v>
       </c>
       <c r="J11">
-        <v>0.05101777016600906</v>
+        <v>0.2081792633228616</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1235678894536889</v>
       </c>
       <c r="M11">
-        <v>12.73002988464413</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3.762244314814893</v>
+        <v>12.03742316731751</v>
       </c>
       <c r="O11">
-        <v>13.99027225313657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3641814578330269</v>
+        <v>0.02659530301119517</v>
       </c>
       <c r="D12">
-        <v>1.252183924655412</v>
+        <v>0.04709356335175841</v>
       </c>
       <c r="E12">
-        <v>0.3070526939588092</v>
+        <v>0.05388983016092119</v>
       </c>
       <c r="F12">
-        <v>16.23048700031069</v>
+        <v>7.115472185974312</v>
       </c>
       <c r="G12">
-        <v>0.0005359277453413263</v>
+        <v>7.567945055893688</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>3.732438977037134</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>5.309222227569194</v>
       </c>
       <c r="J12">
-        <v>0.05131940969998539</v>
+        <v>0.2130987073825779</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1258291443935136</v>
       </c>
       <c r="M12">
-        <v>13.26391172503867</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>3.844568279236967</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>14.74237678850503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3602099403560004</v>
+        <v>0.02658184322625701</v>
       </c>
       <c r="D13">
-        <v>1.238162409403429</v>
+        <v>0.04685446472356958</v>
       </c>
       <c r="E13">
-        <v>0.3042820453474775</v>
+        <v>0.05373514888365172</v>
       </c>
       <c r="F13">
-        <v>16.04631605297459</v>
+        <v>7.072498715074431</v>
       </c>
       <c r="G13">
-        <v>0.0005386362635026409</v>
+        <v>7.520635911816328</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.710549186058074</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>5.277007819514807</v>
       </c>
       <c r="J13">
-        <v>0.05125518780804228</v>
+        <v>0.2120320921622962</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1253385880908482</v>
       </c>
       <c r="M13">
-        <v>13.14581452610147</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>3.826798746087348</v>
+        <v>12.2615545799186</v>
       </c>
       <c r="O13">
-        <v>14.57448966081137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3477561498074664</v>
+        <v>0.02653919227546808</v>
       </c>
       <c r="D14">
-        <v>1.194305332601601</v>
+        <v>0.04608095022116032</v>
       </c>
       <c r="E14">
-        <v>0.2955680234522191</v>
+        <v>0.05323539706520108</v>
       </c>
       <c r="F14">
-        <v>15.47065467572946</v>
+        <v>6.933337907014959</v>
       </c>
       <c r="G14">
-        <v>0.0005471997989962212</v>
+        <v>7.367419204011583</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3.6396771973873</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>5.172687974147379</v>
       </c>
       <c r="J14">
-        <v>0.05104290790499988</v>
+        <v>0.2085808243662726</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1237523439461796</v>
       </c>
       <c r="M14">
-        <v>12.77263347896087</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>3.768999594457767</v>
+        <v>12.06092695796559</v>
       </c>
       <c r="O14">
-        <v>14.049647006681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3404678672778942</v>
+        <v>0.02651400052662645</v>
       </c>
       <c r="D15">
-        <v>1.168713761756862</v>
+        <v>0.04561177778000314</v>
       </c>
       <c r="E15">
-        <v>0.2904486159593986</v>
+        <v>0.05293280946897561</v>
       </c>
       <c r="F15">
-        <v>15.13509214277929</v>
+        <v>6.848833022543943</v>
       </c>
       <c r="G15">
-        <v>0.0005522622026647786</v>
+        <v>7.274366803704027</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3.596650763026673</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>5.109340052304816</v>
       </c>
       <c r="J15">
-        <v>0.05091085402759177</v>
+        <v>0.2064871499825003</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1227908821843045</v>
       </c>
       <c r="M15">
-        <v>12.55221218159571</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>3.733708615756541</v>
+        <v>11.93801081193851</v>
       </c>
       <c r="O15">
-        <v>13.74364520807961</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3026429953193741</v>
+        <v>0.02638305939414032</v>
       </c>
       <c r="D16">
-        <v>1.036688193263387</v>
+        <v>0.04298768278755105</v>
       </c>
       <c r="E16">
-        <v>0.2636027118831024</v>
+        <v>0.05124953560455836</v>
       </c>
       <c r="F16">
-        <v>13.41007156827266</v>
+        <v>6.374993230643781</v>
       </c>
       <c r="G16">
-        <v>0.0005791824985140004</v>
+        <v>6.752413108781866</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3.355541540488673</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>4.754130078060399</v>
       </c>
       <c r="J16">
-        <v>0.05012881160464389</v>
+        <v>0.1947785599147664</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1174265089373066</v>
       </c>
       <c r="M16">
-        <v>11.38368746502289</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>3.533059359245954</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
-        <v>12.16966259967955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2820275906167922</v>
+        <v>0.02631384021725403</v>
       </c>
       <c r="D17">
-        <v>0.9652162091399816</v>
+        <v>0.04142915061169461</v>
       </c>
       <c r="E17">
-        <v>0.2487412759519145</v>
+        <v>0.05025886822337533</v>
       </c>
       <c r="F17">
-        <v>12.48219196618447</v>
+        <v>6.092764635413573</v>
       </c>
       <c r="G17">
-        <v>0.0005943534851260054</v>
+        <v>6.441359504858212</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>3.212060327515985</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>4.542556348882187</v>
       </c>
       <c r="J17">
-        <v>0.04963179451478794</v>
+        <v>0.1878318083600234</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1142550135739171</v>
       </c>
       <c r="M17">
-        <v>10.72898402706292</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>3.411247934412046</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>11.3222159680243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.270867509137716</v>
+        <v>0.02627779810820563</v>
       </c>
       <c r="D18">
-        <v>0.9266462697315774</v>
+        <v>0.04054928094414478</v>
       </c>
       <c r="E18">
-        <v>0.2406178330160174</v>
+        <v>0.04970327790432805</v>
       </c>
       <c r="F18">
-        <v>11.98373641507339</v>
+        <v>5.933234415674832</v>
       </c>
       <c r="G18">
-        <v>0.0006027282072272462</v>
+        <v>6.265473570227243</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>3.131002497171039</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>4.422962202113013</v>
       </c>
       <c r="J18">
-        <v>0.04934133456147904</v>
+        <v>0.1839149076254358</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1124709473733034</v>
       </c>
       <c r="M18">
-        <v>10.36915264454754</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>3.341606547954768</v>
+        <v>10.55149949033284</v>
       </c>
       <c r="O18">
-        <v>10.86667847273782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2671914414179923</v>
+        <v>0.02626621568557397</v>
       </c>
       <c r="D19">
-        <v>0.9139585697587336</v>
+        <v>0.04025401808847562</v>
       </c>
       <c r="E19">
-        <v>0.2379291449574055</v>
+        <v>0.04951750018514112</v>
       </c>
       <c r="F19">
-        <v>11.82016023784536</v>
+        <v>5.879674257175111</v>
       </c>
       <c r="G19">
-        <v>0.0006055130775806033</v>
+        <v>6.206411412100351</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.103795999825138</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>4.382809717369497</v>
       </c>
       <c r="J19">
-        <v>0.04924234030889352</v>
+        <v>0.1826015205338933</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1118734487474669</v>
       </c>
       <c r="M19">
-        <v>10.24978054028185</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3.318095327571086</v>
+        <v>10.46716465870099</v>
       </c>
       <c r="O19">
-        <v>10.71713749184028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2841455450012234</v>
+        <v>0.02632081190082936</v>
       </c>
       <c r="D20">
-        <v>0.9725451633494515</v>
+        <v>0.04159329734900297</v>
       </c>
       <c r="E20">
-        <v>0.2502765085493266</v>
+        <v>0.05036282954485038</v>
       </c>
       <c r="F20">
-        <v>12.57709913923924</v>
+        <v>6.12251201162448</v>
       </c>
       <c r="G20">
-        <v>0.0005927773353155034</v>
+        <v>6.474151560010228</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.227178744967773</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>4.564856750795599</v>
       </c>
       <c r="J20">
-        <v>0.04968521225092815</v>
+        <v>0.1885629867036798</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.114588394873806</v>
       </c>
       <c r="M20">
-        <v>10.79684001235691</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3.424170336205947</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>11.40892715557035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3513393315407853</v>
+        <v>0.02655152317856135</v>
       </c>
       <c r="D21">
-        <v>1.206906948464109</v>
+        <v>0.04630716962824266</v>
       </c>
       <c r="E21">
-        <v>0.298079411631953</v>
+        <v>0.05338144343684625</v>
       </c>
       <c r="F21">
-        <v>15.63599158065767</v>
+        <v>6.974057482925446</v>
       </c>
       <c r="G21">
-        <v>0.0005447248371961422</v>
+        <v>7.412254179339357</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.660412740917423</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>5.20321281716997</v>
       </c>
       <c r="J21">
-        <v>0.0511056969986079</v>
+        <v>0.2095902535066827</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1242161192636786</v>
       </c>
       <c r="M21">
-        <v>12.88045015233573</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>3.785952782955576</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>14.20040129591752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4102112257639732</v>
+        <v>0.02674320225020033</v>
       </c>
       <c r="D22">
-        <v>1.416103946173791</v>
+        <v>0.04958869836140423</v>
       </c>
       <c r="E22">
-        <v>0.3389395945293714</v>
+        <v>0.05550868422091426</v>
       </c>
       <c r="F22">
-        <v>18.38504581928407</v>
+        <v>7.562637285659036</v>
       </c>
       <c r="G22">
-        <v>0.0005052732654984293</v>
+        <v>8.060100100838667</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.960329515028263</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>5.644433062649711</v>
       </c>
       <c r="J22">
-        <v>0.05194892998956746</v>
+        <v>0.224220072485906</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1309525536106833</v>
       </c>
       <c r="M22">
-        <v>14.60125382436328</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>4.027289795292063</v>
+        <v>12.95085643057945</v>
       </c>
       <c r="O22">
-        <v>16.70580718936503</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3765772395235416</v>
+        <v>0.02663674065792243</v>
       </c>
       <c r="D23">
-        <v>1.296064065414697</v>
+        <v>0.04781590537976399</v>
       </c>
       <c r="E23">
-        <v>0.3156773389920176</v>
+        <v>0.05435766828196442</v>
       </c>
       <c r="F23">
-        <v>16.80712087226709</v>
+        <v>7.245173514080761</v>
       </c>
       <c r="G23">
-        <v>0.0005275413888397141</v>
+        <v>7.710718857118252</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.798517969767659</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>5.406450841933037</v>
       </c>
       <c r="J23">
-        <v>0.05150934656107253</v>
+        <v>0.2163203021391453</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1273117165891477</v>
       </c>
       <c r="M23">
-        <v>13.62971187485621</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>3.897975495310078</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>15.26795842464054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2831859188272432</v>
+        <v>0.02631764838593575</v>
       </c>
       <c r="D24">
-        <v>0.9692241058513389</v>
+        <v>0.04151903683724711</v>
       </c>
       <c r="E24">
-        <v>0.2495811566328143</v>
+        <v>0.0503157854403451</v>
       </c>
       <c r="F24">
-        <v>12.53408541826207</v>
+        <v>6.109054801839562</v>
       </c>
       <c r="G24">
-        <v>0.0005934909625942128</v>
+        <v>6.459317184700467</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.22033928737693</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4.554768431699017</v>
       </c>
       <c r="J24">
-        <v>0.04966107638142248</v>
+        <v>0.1882321834092053</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1144375517614904</v>
       </c>
       <c r="M24">
-        <v>10.76611207560973</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>3.418326916308416</v>
+        <v>10.82576172529127</v>
       </c>
       <c r="O24">
-        <v>11.36962893781288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2101727226793457</v>
+        <v>0.0261155243208897</v>
       </c>
       <c r="D25">
-        <v>0.7180408531378646</v>
+        <v>0.03534374412710051</v>
       </c>
       <c r="E25">
-        <v>0.1952972974111162</v>
+        <v>0.04649006697032476</v>
       </c>
       <c r="F25">
-        <v>9.324925811424521</v>
+        <v>4.988285356302896</v>
       </c>
       <c r="G25">
-        <v>0.0006505968756231906</v>
+        <v>5.222521133830242</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.651621494352298</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.714525959202035</v>
       </c>
       <c r="J25">
-        <v>0.04749625629378329</v>
+        <v>0.1608814763123334</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.102054553468939</v>
       </c>
       <c r="M25">
-        <v>8.342591761880215</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>2.916740714796873</v>
+        <v>9.006838561192296</v>
       </c>
       <c r="O25">
-        <v>8.43230281760836</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02606177234207152</v>
+        <v>0.08244627342756239</v>
       </c>
       <c r="D2">
-        <v>0.03112518696108424</v>
+        <v>0.04072730343426301</v>
       </c>
       <c r="E2">
-        <v>0.04402165370593636</v>
+        <v>0.1147618466391851</v>
       </c>
       <c r="F2">
-        <v>4.225076795321257</v>
+        <v>4.212240608295616</v>
       </c>
       <c r="G2">
-        <v>4.378290899446995</v>
+        <v>3.614556738805618</v>
       </c>
       <c r="H2">
-        <v>2.26557038010526</v>
+        <v>2.592033047395887</v>
       </c>
       <c r="I2">
-        <v>3.14225373968209</v>
+        <v>3.070072893264268</v>
       </c>
       <c r="J2">
-        <v>0.1425412037154885</v>
+        <v>0.243591450515332</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09388494294499594</v>
+        <v>0.2099675411600899</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696401</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02607501786474309</v>
+        <v>0.08274999149471007</v>
       </c>
       <c r="D3">
-        <v>0.02839745664848081</v>
+        <v>0.03994293178534036</v>
       </c>
       <c r="E3">
-        <v>0.04252390249367366</v>
+        <v>0.1151013490423587</v>
       </c>
       <c r="F3">
-        <v>3.735940898226687</v>
+        <v>4.132352122187086</v>
       </c>
       <c r="G3">
-        <v>3.835967127489027</v>
+        <v>3.517155678699027</v>
       </c>
       <c r="H3">
-        <v>2.018847085373437</v>
+        <v>2.555584062300682</v>
       </c>
       <c r="I3">
-        <v>2.775416392561866</v>
+        <v>3.009488150405645</v>
       </c>
       <c r="J3">
-        <v>0.1309553926645535</v>
+        <v>0.242746324526145</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08880871941660473</v>
+        <v>0.2101991750566796</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679681</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02610520870480215</v>
+        <v>0.08295171857653827</v>
       </c>
       <c r="D4">
-        <v>0.02676829639623435</v>
+        <v>0.03945342185560818</v>
       </c>
       <c r="E4">
-        <v>0.04167932217493409</v>
+        <v>0.115350064938168</v>
       </c>
       <c r="F4">
-        <v>3.446648792676342</v>
+        <v>4.085917180444056</v>
       </c>
       <c r="G4">
-        <v>3.514594217692633</v>
+        <v>3.459749556915909</v>
       </c>
       <c r="H4">
-        <v>1.873250183024084</v>
+        <v>2.534735381654457</v>
       </c>
       <c r="I4">
-        <v>2.55841731679034</v>
+        <v>2.974211608595198</v>
       </c>
       <c r="J4">
-        <v>0.1241836648172665</v>
+        <v>0.2423468978063212</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.08588399711987904</v>
+        <v>0.2104273127012846</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375818</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02612275342911374</v>
+        <v>0.08303776512076411</v>
       </c>
       <c r="D5">
-        <v>0.02611347600560876</v>
+        <v>0.03925191464412237</v>
       </c>
       <c r="E5">
-        <v>0.04135255609785204</v>
+        <v>0.1154615455231749</v>
       </c>
       <c r="F5">
-        <v>3.331173010687536</v>
+        <v>4.067648321696311</v>
       </c>
       <c r="G5">
-        <v>3.386155382034048</v>
+        <v>3.436954209929382</v>
       </c>
       <c r="H5">
-        <v>1.81521203827117</v>
+        <v>2.526622299106918</v>
       </c>
       <c r="I5">
-        <v>2.471788330348474</v>
+        <v>2.960316374123423</v>
       </c>
       <c r="J5">
-        <v>0.1215005976939878</v>
+        <v>0.2422140927897019</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.08473594341408841</v>
+        <v>0.2105418663036218</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02612597524112203</v>
+        <v>0.08305228532074871</v>
       </c>
       <c r="D6">
-        <v>0.02600522741412092</v>
+        <v>0.03921833085809467</v>
       </c>
       <c r="E6">
-        <v>0.04129930865461695</v>
+        <v>0.1154806685285301</v>
       </c>
       <c r="F6">
-        <v>3.312134306871457</v>
+        <v>4.064654153319253</v>
       </c>
       <c r="G6">
-        <v>3.364969885906902</v>
+        <v>3.433205039765141</v>
       </c>
       <c r="H6">
-        <v>1.805647925205619</v>
+        <v>2.525298195254862</v>
       </c>
       <c r="I6">
-        <v>2.457505021940335</v>
+        <v>2.958037992923252</v>
       </c>
       <c r="J6">
-        <v>0.1210594377999357</v>
+        <v>0.242193848104499</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.08454783330626725</v>
+        <v>0.2105621910660531</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02610542446515751</v>
+        <v>0.082952863465799</v>
       </c>
       <c r="D7">
-        <v>0.02675943146028459</v>
+        <v>0.0394507125239798</v>
       </c>
       <c r="E7">
-        <v>0.04167484662080057</v>
+        <v>0.1153515273962142</v>
       </c>
       <c r="F7">
-        <v>3.445082123082813</v>
+        <v>4.085668158771142</v>
       </c>
       <c r="G7">
-        <v>3.5128523208827</v>
+        <v>3.459439715698295</v>
       </c>
       <c r="H7">
-        <v>1.872462453629566</v>
+        <v>2.534624418063373</v>
       </c>
       <c r="I7">
-        <v>2.557242056207144</v>
+        <v>2.974022272345664</v>
       </c>
       <c r="J7">
-        <v>0.1241471821876061</v>
+        <v>0.2423449855294635</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.08586834231450879</v>
+        <v>0.2104287702335412</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851392596</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02606156243985147</v>
+        <v>0.08254783659764797</v>
       </c>
       <c r="D8">
-        <v>0.03017362454614769</v>
+        <v>0.04045846743854398</v>
       </c>
       <c r="E8">
-        <v>0.04348871515507646</v>
+        <v>0.1148705526880338</v>
       </c>
       <c r="F8">
-        <v>4.053898494078624</v>
+        <v>4.184149277594287</v>
       </c>
       <c r="G8">
-        <v>4.188631257986145</v>
+        <v>3.580471956284896</v>
       </c>
       <c r="H8">
-        <v>2.179156571757687</v>
+        <v>2.579146356522813</v>
       </c>
       <c r="I8">
-        <v>3.013883027650195</v>
+        <v>3.048782211994336</v>
       </c>
       <c r="J8">
-        <v>0.1384693094066023</v>
+        <v>0.2432752020111408</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09209189598586676</v>
+        <v>0.2100295655396565</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209825</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02616732581468817</v>
+        <v>0.08187417311815537</v>
       </c>
       <c r="D9">
-        <v>0.03736145937329738</v>
+        <v>0.04237388412274967</v>
       </c>
       <c r="E9">
-        <v>0.04771820491553314</v>
+        <v>0.1142467577314488</v>
       </c>
       <c r="F9">
-        <v>5.354567069081952</v>
+        <v>4.398246425471086</v>
       </c>
       <c r="G9">
-        <v>5.62704384423904</v>
+        <v>3.837093253837224</v>
       </c>
       <c r="H9">
-        <v>2.837276770165715</v>
+        <v>2.678706758664759</v>
       </c>
       <c r="I9">
-        <v>3.989140820601676</v>
+        <v>3.21080252247117</v>
       </c>
       <c r="J9">
-        <v>0.1697728026758085</v>
+        <v>0.2460515404226769</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1060585487994246</v>
+        <v>0.2099294761749846</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02639149037057997</v>
+        <v>0.08145228262232074</v>
       </c>
       <c r="D10">
-        <v>0.04316792440211614</v>
+        <v>0.04374684716379562</v>
       </c>
       <c r="E10">
-        <v>0.0513645882969076</v>
+        <v>0.1139832305969293</v>
       </c>
       <c r="F10">
-        <v>6.407598398917571</v>
+        <v>4.568651750589595</v>
       </c>
       <c r="G10">
-        <v>6.78833983857163</v>
+        <v>4.03775519853076</v>
       </c>
       <c r="H10">
-        <v>3.372123926481379</v>
+        <v>2.759481704697009</v>
       </c>
       <c r="I10">
-        <v>4.778572460476568</v>
+        <v>3.339479224269553</v>
       </c>
       <c r="J10">
-        <v>0.1955824589678485</v>
+        <v>0.2486782488693677</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1177940953481311</v>
+        <v>0.2102740097250475</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02653432026309765</v>
+        <v>0.08127612052366118</v>
       </c>
       <c r="D11">
-        <v>0.04599096119129342</v>
+        <v>0.0443646086006666</v>
       </c>
       <c r="E11">
-        <v>0.05317732684145504</v>
+        <v>0.1139056729405752</v>
       </c>
       <c r="F11">
-        <v>6.917135116798732</v>
+        <v>4.649092480800192</v>
       </c>
       <c r="G11">
-        <v>7.349578255000779</v>
+        <v>4.131757295952866</v>
       </c>
       <c r="H11">
-        <v>3.631426789102534</v>
+        <v>2.797920588990053</v>
       </c>
       <c r="I11">
-        <v>5.160541781836145</v>
+        <v>3.400165733711361</v>
       </c>
       <c r="J11">
-        <v>0.2081792633228616</v>
+        <v>0.2500021465126068</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1235678894536889</v>
+        <v>0.2105219793652182</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02659530301119517</v>
+        <v>0.08121167117837658</v>
       </c>
       <c r="D12">
-        <v>0.04709356335175841</v>
+        <v>0.0445976086629436</v>
       </c>
       <c r="E12">
-        <v>0.05388983016092119</v>
+        <v>0.1138823922789758</v>
       </c>
       <c r="F12">
-        <v>7.115472185974312</v>
+        <v>4.679979194736944</v>
       </c>
       <c r="G12">
-        <v>7.567945055893688</v>
+        <v>4.16775107815937</v>
       </c>
       <c r="H12">
-        <v>3.732438977037134</v>
+        <v>2.81272278311252</v>
       </c>
       <c r="I12">
-        <v>5.309222227569194</v>
+        <v>3.423459690805061</v>
       </c>
       <c r="J12">
-        <v>0.2130987073825779</v>
+        <v>0.2505221380717373</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1258291443935136</v>
+        <v>0.2106290343934205</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02658184322625701</v>
+        <v>0.08122545111211998</v>
       </c>
       <c r="D13">
-        <v>0.04685446472356958</v>
+        <v>0.04454746867643777</v>
       </c>
       <c r="E13">
-        <v>0.05373514888365172</v>
+        <v>0.1138871353343482</v>
       </c>
       <c r="F13">
-        <v>7.072498715074431</v>
+        <v>4.673308175592808</v>
       </c>
       <c r="G13">
-        <v>7.520635911816328</v>
+        <v>4.159981407583018</v>
       </c>
       <c r="H13">
-        <v>3.710549186058074</v>
+        <v>2.80952387217917</v>
       </c>
       <c r="I13">
-        <v>5.277007819514807</v>
+        <v>3.418428921644562</v>
       </c>
       <c r="J13">
-        <v>0.2120320921622962</v>
+        <v>0.2504093168564765</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1253385880908482</v>
+        <v>0.2106053925704003</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02653919227546808</v>
+        <v>0.08127077299166885</v>
       </c>
       <c r="D14">
-        <v>0.04608095022116032</v>
+        <v>0.04438379608431475</v>
       </c>
       <c r="E14">
-        <v>0.05323539706520108</v>
+        <v>0.1139036355800211</v>
       </c>
       <c r="F14">
-        <v>6.933337907014959</v>
+        <v>4.651624989708125</v>
       </c>
       <c r="G14">
-        <v>7.367419204011583</v>
+        <v>4.13471052956362</v>
       </c>
       <c r="H14">
-        <v>3.6396771973873</v>
+        <v>2.799133424391869</v>
       </c>
       <c r="I14">
-        <v>5.172687974147379</v>
+        <v>3.402075839405313</v>
       </c>
       <c r="J14">
-        <v>0.2085808243662726</v>
+        <v>0.2500445519021284</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1237523439461796</v>
+        <v>0.2105305230116628</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02651400052662645</v>
+        <v>0.08129882800331067</v>
       </c>
       <c r="D15">
-        <v>0.04561177778000314</v>
+        <v>0.04428342179733136</v>
       </c>
       <c r="E15">
-        <v>0.05293280946897561</v>
+        <v>0.1139145354881883</v>
       </c>
       <c r="F15">
-        <v>6.848833022543943</v>
+        <v>4.638398991914016</v>
       </c>
       <c r="G15">
-        <v>7.274366803704027</v>
+        <v>4.119283301500673</v>
       </c>
       <c r="H15">
-        <v>3.596650763026673</v>
+        <v>2.792801120007141</v>
       </c>
       <c r="I15">
-        <v>5.109340052304816</v>
+        <v>3.392100025023012</v>
       </c>
       <c r="J15">
-        <v>0.2064871499825003</v>
+        <v>0.2498235563125135</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1227908821843045</v>
+        <v>0.2104863773736199</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02638305939414032</v>
+        <v>0.08146411175550128</v>
       </c>
       <c r="D16">
-        <v>0.04298768278755105</v>
+        <v>0.04370634195018042</v>
       </c>
       <c r="E16">
-        <v>0.05124953560455836</v>
+        <v>0.1139891510304984</v>
       </c>
       <c r="F16">
-        <v>6.374993230643781</v>
+        <v>4.563454017970543</v>
       </c>
       <c r="G16">
-        <v>6.752413108781866</v>
+        <v>4.031667191158533</v>
       </c>
       <c r="H16">
-        <v>3.355541540488673</v>
+        <v>2.757003943429595</v>
       </c>
       <c r="I16">
-        <v>4.754130078060399</v>
+        <v>3.335556838464726</v>
       </c>
       <c r="J16">
-        <v>0.1947785599147664</v>
+        <v>0.2485943341446415</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1174265089373066</v>
+        <v>0.210259643173984</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02631384021725403</v>
+        <v>0.08156953925634802</v>
       </c>
       <c r="D17">
-        <v>0.04142915061169461</v>
+        <v>0.04335061133653895</v>
       </c>
       <c r="E17">
-        <v>0.05025886822337533</v>
+        <v>0.1140457667777479</v>
       </c>
       <c r="F17">
-        <v>6.092764635413573</v>
+        <v>4.518229954706555</v>
       </c>
       <c r="G17">
-        <v>6.441359504858212</v>
+        <v>3.978618488073437</v>
       </c>
       <c r="H17">
-        <v>3.212060327515985</v>
+        <v>2.735479248933302</v>
       </c>
       <c r="I17">
-        <v>4.542556348882187</v>
+        <v>3.301423122165744</v>
       </c>
       <c r="J17">
-        <v>0.1878318083600234</v>
+        <v>0.2478733625170548</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1142550135739171</v>
+        <v>0.2101439414016752</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02627779810820563</v>
+        <v>0.08163166196579752</v>
       </c>
       <c r="D18">
-        <v>0.04054928094414478</v>
+        <v>0.04314536105426114</v>
       </c>
       <c r="E18">
-        <v>0.04970327790432805</v>
+        <v>0.1140823140050671</v>
       </c>
       <c r="F18">
-        <v>5.933234415674832</v>
+        <v>4.492493022993926</v>
       </c>
       <c r="G18">
-        <v>6.265473570227243</v>
+        <v>3.94836192007358</v>
       </c>
       <c r="H18">
-        <v>3.131002497171039</v>
+        <v>2.723258095246081</v>
       </c>
       <c r="I18">
-        <v>4.422962202113013</v>
+        <v>3.281992512070104</v>
       </c>
       <c r="J18">
-        <v>0.1839149076254358</v>
+        <v>0.2474708134321943</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1124709473733034</v>
+        <v>0.2100859785397233</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02626621568557397</v>
+        <v>0.08165295066008227</v>
       </c>
       <c r="D19">
-        <v>0.04025401808847562</v>
+        <v>0.04307575493767501</v>
       </c>
       <c r="E19">
-        <v>0.04951750018514112</v>
+        <v>0.1140953723362355</v>
       </c>
       <c r="F19">
-        <v>5.879674257175111</v>
+        <v>4.483825969884464</v>
       </c>
       <c r="G19">
-        <v>6.206411412100351</v>
+        <v>3.938161289513289</v>
       </c>
       <c r="H19">
-        <v>3.103795999825138</v>
+        <v>2.719147500196982</v>
       </c>
       <c r="I19">
-        <v>4.382809717369497</v>
+        <v>3.275448249123656</v>
       </c>
       <c r="J19">
-        <v>0.1826015205338933</v>
+        <v>0.2473365980628515</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1118734487474669</v>
+        <v>0.2100678269111356</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870099</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02632081190082936</v>
+        <v>0.08155816282083705</v>
       </c>
       <c r="D20">
-        <v>0.04159329734900297</v>
+        <v>0.04338854573108364</v>
       </c>
       <c r="E20">
-        <v>0.05036282954485038</v>
+        <v>0.1140393276551848</v>
       </c>
       <c r="F20">
-        <v>6.12251201162448</v>
+        <v>4.523015659545507</v>
       </c>
       <c r="G20">
-        <v>6.474151560010228</v>
+        <v>3.984239111306977</v>
       </c>
       <c r="H20">
-        <v>3.227178744967773</v>
+        <v>2.737754085559743</v>
       </c>
       <c r="I20">
-        <v>4.564856750795599</v>
+        <v>3.305035758849954</v>
       </c>
       <c r="J20">
-        <v>0.1885629867036798</v>
+        <v>0.2479488544886337</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.114588394873806</v>
+        <v>0.2101553692209777</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.95780600327754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02655152317856135</v>
+        <v>0.08125739958836498</v>
       </c>
       <c r="D21">
-        <v>0.04630716962824266</v>
+        <v>0.04443189563777494</v>
       </c>
       <c r="E21">
-        <v>0.05338144343684625</v>
+        <v>0.1138986237848236</v>
       </c>
       <c r="F21">
-        <v>6.974057482925446</v>
+        <v>4.657982274591575</v>
       </c>
       <c r="G21">
-        <v>7.412254179339357</v>
+        <v>4.142122368998116</v>
       </c>
       <c r="H21">
-        <v>3.660412740917423</v>
+        <v>2.802178646993866</v>
       </c>
       <c r="I21">
-        <v>5.20321281716997</v>
+        <v>3.406870600930148</v>
       </c>
       <c r="J21">
-        <v>0.2095902535066827</v>
+        <v>0.2501511848730971</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1242161192636786</v>
+        <v>0.2105521567295483</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571083</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02674320225020033</v>
+        <v>0.08107400013787647</v>
       </c>
       <c r="D22">
-        <v>0.04958869836140423</v>
+        <v>0.04510837003673629</v>
       </c>
       <c r="E22">
-        <v>0.05550868422091426</v>
+        <v>0.1138421573596489</v>
       </c>
       <c r="F22">
-        <v>7.562637285659036</v>
+        <v>4.748673783272295</v>
       </c>
       <c r="G22">
-        <v>8.060100100838667</v>
+        <v>4.247626492829795</v>
       </c>
       <c r="H22">
-        <v>3.960329515028263</v>
+        <v>2.845720272745666</v>
       </c>
       <c r="I22">
-        <v>5.644433062649711</v>
+        <v>3.475253603157057</v>
       </c>
       <c r="J22">
-        <v>0.224220072485906</v>
+        <v>0.2516993557018878</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1309525536106833</v>
+        <v>0.2108881709999437</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.67379181795809</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02663674065792243</v>
+        <v>0.08117068124059479</v>
       </c>
       <c r="D23">
-        <v>0.04781590537976399</v>
+        <v>0.04474780300229497</v>
       </c>
       <c r="E23">
-        <v>0.05435766828196442</v>
+        <v>0.1138690459239289</v>
       </c>
       <c r="F23">
-        <v>7.245173514080761</v>
+        <v>4.700041032170844</v>
       </c>
       <c r="G23">
-        <v>7.710718857118252</v>
+        <v>4.191102778043842</v>
       </c>
       <c r="H23">
-        <v>3.798517969767659</v>
+        <v>2.822348962675107</v>
       </c>
       <c r="I23">
-        <v>5.406450841933037</v>
+        <v>3.438587690463521</v>
       </c>
       <c r="J23">
-        <v>0.2163203021391453</v>
+        <v>0.2508630729911303</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1273117165891477</v>
+        <v>0.2107018048309683</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02631764838593575</v>
+        <v>0.08156330140021062</v>
       </c>
       <c r="D24">
-        <v>0.04151903683724711</v>
+        <v>0.04337139788721345</v>
       </c>
       <c r="E24">
-        <v>0.0503157854403451</v>
+        <v>0.1140422263295147</v>
       </c>
       <c r="F24">
-        <v>6.109054801839562</v>
+        <v>4.520851223648521</v>
       </c>
       <c r="G24">
-        <v>6.459317184700467</v>
+        <v>3.981697274730777</v>
       </c>
       <c r="H24">
-        <v>3.22033928737693</v>
+        <v>2.736725153440773</v>
       </c>
       <c r="I24">
-        <v>4.554768431699017</v>
+        <v>3.303401883963886</v>
       </c>
       <c r="J24">
-        <v>0.1882321834092053</v>
+        <v>0.2479146873638882</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1144375517614904</v>
+        <v>0.2101501760575175</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529127</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0261155243208897</v>
+        <v>0.082043555527056</v>
       </c>
       <c r="D25">
-        <v>0.03534374412710051</v>
+        <v>0.04186193773093905</v>
       </c>
       <c r="E25">
-        <v>0.04649006697032476</v>
+        <v>0.1143813132759952</v>
       </c>
       <c r="F25">
-        <v>4.988285356302896</v>
+        <v>4.338049164424717</v>
       </c>
       <c r="G25">
-        <v>5.222521133830242</v>
+        <v>3.765568830016605</v>
       </c>
       <c r="H25">
-        <v>2.651621494352298</v>
+        <v>2.650445154803322</v>
       </c>
       <c r="I25">
-        <v>3.714525959202035</v>
+        <v>3.165296621382481</v>
       </c>
       <c r="J25">
-        <v>0.1608814763123334</v>
+        <v>0.2451978751496497</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.102054553468939</v>
+        <v>0.2098832758479077</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.006838561192296</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08244627342756239</v>
+        <v>0.02606177234206797</v>
       </c>
       <c r="D2">
-        <v>0.04072730343426301</v>
+        <v>0.03112518696145727</v>
       </c>
       <c r="E2">
-        <v>0.1147618466391851</v>
+        <v>0.04402165370593636</v>
       </c>
       <c r="F2">
-        <v>4.212240608295616</v>
+        <v>4.225076795321286</v>
       </c>
       <c r="G2">
-        <v>3.614556738805618</v>
+        <v>4.378290899446938</v>
       </c>
       <c r="H2">
-        <v>2.592033047395887</v>
+        <v>2.26557038010526</v>
       </c>
       <c r="I2">
-        <v>3.070072893264268</v>
+        <v>3.14225373968209</v>
       </c>
       <c r="J2">
-        <v>0.243591450515332</v>
+        <v>0.1425412037154885</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2099675411600899</v>
+        <v>0.09388494294510252</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696401</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.08274999149471007</v>
+        <v>0.02607501786475552</v>
       </c>
       <c r="D3">
-        <v>0.03994293178534036</v>
+        <v>0.02839745664840265</v>
       </c>
       <c r="E3">
-        <v>0.1151013490423587</v>
+        <v>0.04252390249371807</v>
       </c>
       <c r="F3">
-        <v>4.132352122187086</v>
+        <v>3.735940898226659</v>
       </c>
       <c r="G3">
-        <v>3.517155678699027</v>
+        <v>3.835967127488971</v>
       </c>
       <c r="H3">
-        <v>2.555584062300682</v>
+        <v>2.018847085373437</v>
       </c>
       <c r="I3">
-        <v>3.009488150405645</v>
+        <v>2.77541639256188</v>
       </c>
       <c r="J3">
-        <v>0.242746324526145</v>
+        <v>0.1309553926644611</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2101991750566796</v>
+        <v>0.08880871941664026</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679681</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.08295171857653827</v>
+        <v>0.02610520870434208</v>
       </c>
       <c r="D4">
-        <v>0.03945342185560818</v>
+        <v>0.02676829639598921</v>
       </c>
       <c r="E4">
-        <v>0.115350064938168</v>
+        <v>0.04167932217493764</v>
       </c>
       <c r="F4">
-        <v>4.085917180444056</v>
+        <v>3.446648792676342</v>
       </c>
       <c r="G4">
-        <v>3.459749556915909</v>
+        <v>3.514594217692689</v>
       </c>
       <c r="H4">
-        <v>2.534735381654457</v>
+        <v>1.873250183024197</v>
       </c>
       <c r="I4">
-        <v>2.974211608595198</v>
+        <v>2.55841731679034</v>
       </c>
       <c r="J4">
-        <v>0.2423468978063212</v>
+        <v>0.1241836648172736</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2104273127012846</v>
+        <v>0.08588399711999628</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375818</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.08303776512076411</v>
+        <v>0.02612275342910841</v>
       </c>
       <c r="D5">
-        <v>0.03925191464412237</v>
+        <v>0.02611347600573311</v>
       </c>
       <c r="E5">
-        <v>0.1154615455231749</v>
+        <v>0.04135255609788757</v>
       </c>
       <c r="F5">
-        <v>4.067648321696311</v>
+        <v>3.331173010687507</v>
       </c>
       <c r="G5">
-        <v>3.436954209929382</v>
+        <v>3.386155382034019</v>
       </c>
       <c r="H5">
-        <v>2.526622299106918</v>
+        <v>1.815212038271312</v>
       </c>
       <c r="I5">
-        <v>2.960316374123423</v>
+        <v>2.471788330348488</v>
       </c>
       <c r="J5">
-        <v>0.2422140927897019</v>
+        <v>0.121500597694201</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2105418663036218</v>
+        <v>0.08473594341415946</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.08305228532074871</v>
+        <v>0.02612597524138494</v>
       </c>
       <c r="D6">
-        <v>0.03921833085809467</v>
+        <v>0.02600522741412803</v>
       </c>
       <c r="E6">
-        <v>0.1154806685285301</v>
+        <v>0.04129930865461873</v>
       </c>
       <c r="F6">
-        <v>4.064654153319253</v>
+        <v>3.312134306871457</v>
       </c>
       <c r="G6">
-        <v>3.433205039765141</v>
+        <v>3.364969885906845</v>
       </c>
       <c r="H6">
-        <v>2.525298195254862</v>
+        <v>1.805647925205619</v>
       </c>
       <c r="I6">
-        <v>2.958037992923252</v>
+        <v>2.457505021940335</v>
       </c>
       <c r="J6">
-        <v>0.242193848104499</v>
+        <v>0.1210594377998859</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2105621910660531</v>
+        <v>0.08454783330620685</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.082952863465799</v>
+        <v>0.02610542446592667</v>
       </c>
       <c r="D7">
-        <v>0.0394507125239798</v>
+        <v>0.02675943146043736</v>
       </c>
       <c r="E7">
-        <v>0.1153515273962142</v>
+        <v>0.04167484662080057</v>
       </c>
       <c r="F7">
-        <v>4.085668158771142</v>
+        <v>3.445082123082813</v>
       </c>
       <c r="G7">
-        <v>3.459439715698295</v>
+        <v>3.512852320882672</v>
       </c>
       <c r="H7">
-        <v>2.534624418063373</v>
+        <v>1.872462453629481</v>
       </c>
       <c r="I7">
-        <v>2.974022272345664</v>
+        <v>2.557242056207144</v>
       </c>
       <c r="J7">
-        <v>0.2423449855294635</v>
+        <v>0.1241471821876132</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2104287702335412</v>
+        <v>0.08586834231440577</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851392596</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08254783659764797</v>
+        <v>0.02606156244015878</v>
       </c>
       <c r="D8">
-        <v>0.04045846743854398</v>
+        <v>0.03017362454615835</v>
       </c>
       <c r="E8">
-        <v>0.1148705526880338</v>
+        <v>0.04348871515503738</v>
       </c>
       <c r="F8">
-        <v>4.184149277594287</v>
+        <v>4.053898494078595</v>
       </c>
       <c r="G8">
-        <v>3.580471956284896</v>
+        <v>4.188631257986259</v>
       </c>
       <c r="H8">
-        <v>2.579146356522813</v>
+        <v>2.17915657175746</v>
       </c>
       <c r="I8">
-        <v>3.048782211994336</v>
+        <v>3.013883027650181</v>
       </c>
       <c r="J8">
-        <v>0.2432752020111408</v>
+        <v>0.1384693094065739</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2100295655396565</v>
+        <v>0.09209189598551148</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209825</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.08187417311815537</v>
+        <v>0.02616732581458514</v>
       </c>
       <c r="D9">
-        <v>0.04237388412274967</v>
+        <v>0.03736145937314816</v>
       </c>
       <c r="E9">
-        <v>0.1142467577314488</v>
+        <v>0.0477182049155136</v>
       </c>
       <c r="F9">
-        <v>4.398246425471086</v>
+        <v>5.354567069081952</v>
       </c>
       <c r="G9">
-        <v>3.837093253837224</v>
+        <v>5.627043844239097</v>
       </c>
       <c r="H9">
-        <v>2.678706758664759</v>
+        <v>2.837276770165715</v>
       </c>
       <c r="I9">
-        <v>3.21080252247117</v>
+        <v>3.989140820601676</v>
       </c>
       <c r="J9">
-        <v>0.2460515404226769</v>
+        <v>0.1697728026757943</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2099294761749846</v>
+        <v>0.1060585487993819</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550619</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08145228262232074</v>
+        <v>0.02639149037021404</v>
       </c>
       <c r="D10">
-        <v>0.04374684716379562</v>
+        <v>0.04316792440210193</v>
       </c>
       <c r="E10">
-        <v>0.1139832305969293</v>
+        <v>0.05136458829690049</v>
       </c>
       <c r="F10">
-        <v>4.568651750589595</v>
+        <v>6.407598398917628</v>
       </c>
       <c r="G10">
-        <v>4.03775519853076</v>
+        <v>6.788339838571574</v>
       </c>
       <c r="H10">
-        <v>2.759481704697009</v>
+        <v>3.372123926481379</v>
       </c>
       <c r="I10">
-        <v>3.339479224269553</v>
+        <v>4.778572460476624</v>
       </c>
       <c r="J10">
-        <v>0.2486782488693677</v>
+        <v>0.1955824589679054</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2102740097250475</v>
+        <v>0.1177940953481809</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837525</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.08127612052366118</v>
+        <v>0.02653432026268021</v>
       </c>
       <c r="D11">
-        <v>0.0443646086006666</v>
+        <v>0.04599096119151369</v>
       </c>
       <c r="E11">
-        <v>0.1139056729405752</v>
+        <v>0.05317732684145682</v>
       </c>
       <c r="F11">
-        <v>4.649092480800192</v>
+        <v>6.917135116798704</v>
       </c>
       <c r="G11">
-        <v>4.131757295952866</v>
+        <v>7.349578255000552</v>
       </c>
       <c r="H11">
-        <v>2.797920588990053</v>
+        <v>3.631426789102534</v>
       </c>
       <c r="I11">
-        <v>3.400165733711361</v>
+        <v>5.160541781836116</v>
       </c>
       <c r="J11">
-        <v>0.2500021465126068</v>
+        <v>0.2081792633230677</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2105219793652182</v>
+        <v>0.1235678894534971</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731768</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.08121167117837658</v>
+        <v>0.02659530301098556</v>
       </c>
       <c r="D12">
-        <v>0.0445976086629436</v>
+        <v>0.04709356335212433</v>
       </c>
       <c r="E12">
-        <v>0.1138823922789758</v>
+        <v>0.05388983016087501</v>
       </c>
       <c r="F12">
-        <v>4.679979194736944</v>
+        <v>7.115472185974312</v>
       </c>
       <c r="G12">
-        <v>4.16775107815937</v>
+        <v>7.567945055893802</v>
       </c>
       <c r="H12">
-        <v>2.81272278311252</v>
+        <v>3.732438977037134</v>
       </c>
       <c r="I12">
-        <v>3.423459690805061</v>
+        <v>5.309222227569222</v>
       </c>
       <c r="J12">
-        <v>0.2505221380717373</v>
+        <v>0.2130987073827839</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2106290343934205</v>
+        <v>0.125829144393613</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.08122545111211998</v>
+        <v>0.02658184322678636</v>
       </c>
       <c r="D13">
-        <v>0.04454746867643777</v>
+        <v>0.04685446472376853</v>
       </c>
       <c r="E13">
-        <v>0.1138871353343482</v>
+        <v>0.05373514888361264</v>
       </c>
       <c r="F13">
-        <v>4.673308175592808</v>
+        <v>7.072498715074403</v>
       </c>
       <c r="G13">
-        <v>4.159981407583018</v>
+        <v>7.520635911816271</v>
       </c>
       <c r="H13">
-        <v>2.80952387217917</v>
+        <v>3.710549186058074</v>
       </c>
       <c r="I13">
-        <v>3.418428921644562</v>
+        <v>5.277007819514751</v>
       </c>
       <c r="J13">
-        <v>0.2504093168564765</v>
+        <v>0.2120320921623318</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2106053925704003</v>
+        <v>0.1253385880907913</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08127077299166885</v>
+        <v>0.02653919227561019</v>
       </c>
       <c r="D14">
-        <v>0.04438379608431475</v>
+        <v>0.04608095022132019</v>
       </c>
       <c r="E14">
-        <v>0.1139036355800211</v>
+        <v>0.05323539706516378</v>
       </c>
       <c r="F14">
-        <v>4.651624989708125</v>
+        <v>6.933337907015016</v>
       </c>
       <c r="G14">
-        <v>4.13471052956362</v>
+        <v>7.367419204011753</v>
       </c>
       <c r="H14">
-        <v>2.799133424391869</v>
+        <v>3.639677197387357</v>
       </c>
       <c r="I14">
-        <v>3.402075839405313</v>
+        <v>5.172687974147436</v>
       </c>
       <c r="J14">
-        <v>0.2500445519021284</v>
+        <v>0.2085808243662299</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2105305230116628</v>
+        <v>0.123752343946137</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08129882800331067</v>
+        <v>0.02651400052677744</v>
       </c>
       <c r="D15">
-        <v>0.04428342179733136</v>
+        <v>0.04561177777999603</v>
       </c>
       <c r="E15">
-        <v>0.1139145354881883</v>
+        <v>0.05293280946897561</v>
       </c>
       <c r="F15">
-        <v>4.638398991914016</v>
+        <v>6.848833022543971</v>
       </c>
       <c r="G15">
-        <v>4.119283301500673</v>
+        <v>7.274366803704083</v>
       </c>
       <c r="H15">
-        <v>2.792801120007141</v>
+        <v>3.596650763026673</v>
       </c>
       <c r="I15">
-        <v>3.392100025023012</v>
+        <v>5.109340052304901</v>
       </c>
       <c r="J15">
-        <v>0.2498235563125135</v>
+        <v>0.2064871499824861</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2104863773736199</v>
+        <v>0.1227908821842973</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08146411175550128</v>
+        <v>0.02638305939449381</v>
       </c>
       <c r="D16">
-        <v>0.04370634195018042</v>
+        <v>0.04298768278772869</v>
       </c>
       <c r="E16">
-        <v>0.1139891510304984</v>
+        <v>0.05124953560455836</v>
       </c>
       <c r="F16">
-        <v>4.563454017970543</v>
+        <v>6.374993230643781</v>
       </c>
       <c r="G16">
-        <v>4.031667191158533</v>
+        <v>6.752413108781809</v>
       </c>
       <c r="H16">
-        <v>2.757003943429595</v>
+        <v>3.355541540488616</v>
       </c>
       <c r="I16">
-        <v>3.335556838464726</v>
+        <v>4.754130078060427</v>
       </c>
       <c r="J16">
-        <v>0.2485943341446415</v>
+        <v>0.1947785599147593</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.210259643173984</v>
+        <v>0.1174265089373989</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08156953925634802</v>
+        <v>0.02631384021745653</v>
       </c>
       <c r="D17">
-        <v>0.04335061133653895</v>
+        <v>0.04142915061171948</v>
       </c>
       <c r="E17">
-        <v>0.1140457667777479</v>
+        <v>0.05025886822348546</v>
       </c>
       <c r="F17">
-        <v>4.518229954706555</v>
+        <v>6.09276463541363</v>
       </c>
       <c r="G17">
-        <v>3.978618488073437</v>
+        <v>6.441359504858212</v>
       </c>
       <c r="H17">
-        <v>2.735479248933302</v>
+        <v>3.212060327515928</v>
       </c>
       <c r="I17">
-        <v>3.301423122165744</v>
+        <v>4.542556348882215</v>
       </c>
       <c r="J17">
-        <v>0.2478733625170548</v>
+        <v>0.1878318083601513</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2101439414016752</v>
+        <v>0.1142550135741871</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08163166196579752</v>
+        <v>0.02627779810829622</v>
       </c>
       <c r="D18">
-        <v>0.04314536105426114</v>
+        <v>0.0405492809443615</v>
       </c>
       <c r="E18">
-        <v>0.1140823140050671</v>
+        <v>0.04970327790437423</v>
       </c>
       <c r="F18">
-        <v>4.492493022993926</v>
+        <v>5.933234415674804</v>
       </c>
       <c r="G18">
-        <v>3.94836192007358</v>
+        <v>6.26547357022713</v>
       </c>
       <c r="H18">
-        <v>2.723258095246081</v>
+        <v>3.131002497171039</v>
       </c>
       <c r="I18">
-        <v>3.281992512070104</v>
+        <v>4.422962202113041</v>
       </c>
       <c r="J18">
-        <v>0.2474708134321943</v>
+        <v>0.1839149076255424</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2100859785397233</v>
+        <v>0.1124709473735308</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08165295066008227</v>
+        <v>0.0262662156852258</v>
       </c>
       <c r="D19">
-        <v>0.04307575493767501</v>
+        <v>0.04025401808846496</v>
       </c>
       <c r="E19">
-        <v>0.1140953723362355</v>
+        <v>0.04951750018513223</v>
       </c>
       <c r="F19">
-        <v>4.483825969884464</v>
+        <v>5.879674257175139</v>
       </c>
       <c r="G19">
-        <v>3.938161289513289</v>
+        <v>6.206411412100351</v>
       </c>
       <c r="H19">
-        <v>2.719147500196982</v>
+        <v>3.103795999825138</v>
       </c>
       <c r="I19">
-        <v>3.275448249123656</v>
+        <v>4.382809717369497</v>
       </c>
       <c r="J19">
-        <v>0.2473365980628515</v>
+        <v>0.1826015205339644</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2100678269111356</v>
+        <v>0.1118734487474597</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.46716465870088</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08155816282083705</v>
+        <v>0.02632081190103008</v>
       </c>
       <c r="D20">
-        <v>0.04338854573108364</v>
+        <v>0.0415932973489781</v>
       </c>
       <c r="E20">
-        <v>0.1140393276551848</v>
+        <v>0.05036282954479887</v>
       </c>
       <c r="F20">
-        <v>4.523015659545507</v>
+        <v>6.122512011624593</v>
       </c>
       <c r="G20">
-        <v>3.984239111306977</v>
+        <v>6.474151560010341</v>
       </c>
       <c r="H20">
-        <v>2.737754085559743</v>
+        <v>3.22717874496783</v>
       </c>
       <c r="I20">
-        <v>3.305035758849954</v>
+        <v>4.564856750795627</v>
       </c>
       <c r="J20">
-        <v>0.2479488544886337</v>
+        <v>0.1885629867036869</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2101553692209777</v>
+        <v>0.1145883948738415</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.95780600327754</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.08125739958836498</v>
+        <v>0.02655152317914933</v>
       </c>
       <c r="D21">
-        <v>0.04443189563777494</v>
+        <v>0.04630716962825332</v>
       </c>
       <c r="E21">
-        <v>0.1138986237848236</v>
+        <v>0.05338144343689777</v>
       </c>
       <c r="F21">
-        <v>4.657982274591575</v>
+        <v>6.974057482925389</v>
       </c>
       <c r="G21">
-        <v>4.142122368998116</v>
+        <v>7.41225417933947</v>
       </c>
       <c r="H21">
-        <v>2.802178646993866</v>
+        <v>3.660412740917423</v>
       </c>
       <c r="I21">
-        <v>3.406870600930148</v>
+        <v>5.203212817169941</v>
       </c>
       <c r="J21">
-        <v>0.2501511848730971</v>
+        <v>0.2095902535066827</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2105521567295483</v>
+        <v>0.1242161192634086</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571083</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.08107400013787647</v>
+        <v>0.02674320224998361</v>
       </c>
       <c r="D22">
-        <v>0.04510837003673629</v>
+        <v>0.04958869836180213</v>
       </c>
       <c r="E22">
-        <v>0.1138421573596489</v>
+        <v>0.05550868422093558</v>
       </c>
       <c r="F22">
-        <v>4.748673783272295</v>
+        <v>7.562637285659008</v>
       </c>
       <c r="G22">
-        <v>4.247626492829795</v>
+        <v>8.060100100838667</v>
       </c>
       <c r="H22">
-        <v>2.845720272745666</v>
+        <v>3.960329515028263</v>
       </c>
       <c r="I22">
-        <v>3.475253603157057</v>
+        <v>5.644433062649739</v>
       </c>
       <c r="J22">
-        <v>0.2516993557018878</v>
+        <v>0.2242200724858847</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2108881709999437</v>
+        <v>0.1309525536106761</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.67379181795809</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.08117068124059479</v>
+        <v>0.02663674065830079</v>
       </c>
       <c r="D23">
-        <v>0.04474780300229497</v>
+        <v>0.04781590537995939</v>
       </c>
       <c r="E23">
-        <v>0.1138690459239289</v>
+        <v>0.05435766828199284</v>
       </c>
       <c r="F23">
-        <v>4.700041032170844</v>
+        <v>7.245173514080761</v>
       </c>
       <c r="G23">
-        <v>4.191102778043842</v>
+        <v>7.710718857118138</v>
       </c>
       <c r="H23">
-        <v>2.822348962675107</v>
+        <v>3.798517969767659</v>
       </c>
       <c r="I23">
-        <v>3.438587690463521</v>
+        <v>5.406450841933008</v>
       </c>
       <c r="J23">
-        <v>0.2508630729911303</v>
+        <v>0.2163203021389819</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2107018048309683</v>
+        <v>0.1273117165890838</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08156330140021062</v>
+        <v>0.02631764838626793</v>
       </c>
       <c r="D24">
-        <v>0.04337139788721345</v>
+        <v>0.04151903683721869</v>
       </c>
       <c r="E24">
-        <v>0.1140422263295147</v>
+        <v>0.05031578544031312</v>
       </c>
       <c r="F24">
-        <v>4.520851223648521</v>
+        <v>6.109054801839676</v>
       </c>
       <c r="G24">
-        <v>3.981697274730777</v>
+        <v>6.45931718470041</v>
       </c>
       <c r="H24">
-        <v>2.736725153440773</v>
+        <v>3.220339287376987</v>
       </c>
       <c r="I24">
-        <v>3.303401883963886</v>
+        <v>4.554768431699046</v>
       </c>
       <c r="J24">
-        <v>0.2479146873638882</v>
+        <v>0.1882321834091343</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2101501760575175</v>
+        <v>0.1144375517616396</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.082043555527056</v>
+        <v>0.02611552432066411</v>
       </c>
       <c r="D25">
-        <v>0.04186193773093905</v>
+        <v>0.0353437441270934</v>
       </c>
       <c r="E25">
-        <v>0.1143813132759952</v>
+        <v>0.04649006697040292</v>
       </c>
       <c r="F25">
-        <v>4.338049164424717</v>
+        <v>4.988285356302896</v>
       </c>
       <c r="G25">
-        <v>3.765568830016605</v>
+        <v>5.222521133830185</v>
       </c>
       <c r="H25">
-        <v>2.650445154803322</v>
+        <v>2.651621494352241</v>
       </c>
       <c r="I25">
-        <v>3.165296621382481</v>
+        <v>3.714525959202007</v>
       </c>
       <c r="J25">
-        <v>0.2451978751496497</v>
+        <v>0.1608814763124258</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2098832758479077</v>
+        <v>0.1020545534691237</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02606177234206797</v>
+        <v>0.04631100305653746</v>
       </c>
       <c r="D2">
-        <v>0.03112518696145727</v>
+        <v>0.07179238947436772</v>
       </c>
       <c r="E2">
-        <v>0.04402165370593636</v>
+        <v>0.06521346424552998</v>
       </c>
       <c r="F2">
-        <v>4.225076795321286</v>
+        <v>0.9348798413896588</v>
       </c>
       <c r="G2">
-        <v>4.378290899446938</v>
+        <v>0.7624789374041399</v>
       </c>
       <c r="H2">
-        <v>2.26557038010526</v>
+        <v>0.002726165233355005</v>
       </c>
       <c r="I2">
-        <v>3.14225373968209</v>
+        <v>0.02474158973207174</v>
       </c>
       <c r="J2">
-        <v>0.1425412037154885</v>
+        <v>0.4749984631433932</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6476909656938403</v>
       </c>
       <c r="L2">
-        <v>0.09388494294510252</v>
+        <v>0.08052462192917975</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.455233047672323</v>
+      </c>
+      <c r="P2">
+        <v>4.202634673439491</v>
+      </c>
+      <c r="Q2">
+        <v>2.561148961298471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02607501786475552</v>
+        <v>0.04134024595411745</v>
       </c>
       <c r="D3">
-        <v>0.02839745664840265</v>
+        <v>0.07155430146328001</v>
       </c>
       <c r="E3">
-        <v>0.04252390249371807</v>
+        <v>0.06492258098837445</v>
       </c>
       <c r="F3">
-        <v>3.735940898226659</v>
+        <v>0.8527760692289945</v>
       </c>
       <c r="G3">
-        <v>3.835967127488971</v>
+        <v>0.6804102637783132</v>
       </c>
       <c r="H3">
-        <v>2.018847085373437</v>
+        <v>0.001359555994566275</v>
       </c>
       <c r="I3">
-        <v>2.77541639256188</v>
+        <v>0.01993121782163376</v>
       </c>
       <c r="J3">
-        <v>0.1309553926644611</v>
+        <v>0.4393544210240634</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.584967289732802</v>
       </c>
       <c r="L3">
-        <v>0.08880871941664026</v>
+        <v>0.07944122912164486</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.749683652115209</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.14492564866066</v>
+      </c>
+      <c r="P3">
+        <v>3.746429221495504</v>
+      </c>
+      <c r="Q3">
+        <v>2.312262218746014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02610520870434208</v>
+        <v>0.03818950415509192</v>
       </c>
       <c r="D4">
-        <v>0.02676829639598921</v>
+        <v>0.07146876286005011</v>
       </c>
       <c r="E4">
-        <v>0.04167932217493764</v>
+        <v>0.06474111550672212</v>
       </c>
       <c r="F4">
-        <v>3.446648792676342</v>
+        <v>0.8028239834742266</v>
       </c>
       <c r="G4">
-        <v>3.514594217692689</v>
+        <v>0.6302690914113072</v>
       </c>
       <c r="H4">
-        <v>1.873250183024197</v>
+        <v>0.0007358143684328411</v>
       </c>
       <c r="I4">
-        <v>2.55841731679034</v>
+        <v>0.01715759195803024</v>
       </c>
       <c r="J4">
-        <v>0.1241836648172736</v>
+        <v>0.4176687514032551</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5464875392643265</v>
       </c>
       <c r="L4">
-        <v>0.08588399711999628</v>
+        <v>0.07873280251640091</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.95341882712323</v>
+      </c>
+      <c r="P4">
+        <v>3.466437385427128</v>
+      </c>
+      <c r="Q4">
+        <v>2.160381623669593</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02612275342910841</v>
+        <v>0.03663828438088501</v>
       </c>
       <c r="D5">
-        <v>0.02611347600573311</v>
+        <v>0.07148002154105981</v>
       </c>
       <c r="E5">
-        <v>0.04135255609788757</v>
+        <v>0.06466803879800809</v>
       </c>
       <c r="F5">
-        <v>3.331173010687507</v>
+        <v>0.781991058884401</v>
       </c>
       <c r="G5">
-        <v>3.386155382034019</v>
+        <v>0.6092331483266378</v>
       </c>
       <c r="H5">
-        <v>1.815212038271312</v>
+        <v>0.0005312043681569012</v>
       </c>
       <c r="I5">
-        <v>2.471788330348488</v>
+        <v>0.01610372636605373</v>
       </c>
       <c r="J5">
-        <v>0.121500597694201</v>
+        <v>0.4085496175718504</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5300256336892843</v>
       </c>
       <c r="L5">
-        <v>0.08473594341415946</v>
+        <v>0.07842521444554373</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.874559865657289</v>
+      </c>
+      <c r="P5">
+        <v>3.352705000757709</v>
+      </c>
+      <c r="Q5">
+        <v>2.096617433001683</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02612597524138494</v>
+        <v>0.03608457202474114</v>
       </c>
       <c r="D6">
-        <v>0.02600522741412803</v>
+        <v>0.07152144201298682</v>
       </c>
       <c r="E6">
-        <v>0.04129930865461873</v>
+        <v>0.06465829373171994</v>
       </c>
       <c r="F6">
-        <v>3.312134306871457</v>
+        <v>0.7778261490695115</v>
       </c>
       <c r="G6">
-        <v>3.364969885906845</v>
+        <v>0.6049403699675082</v>
       </c>
       <c r="H6">
-        <v>1.805647925205619</v>
+        <v>0.0004989721308406025</v>
       </c>
       <c r="I6">
-        <v>2.457505021940335</v>
+        <v>0.0159814793820745</v>
       </c>
       <c r="J6">
-        <v>0.1210594377998859</v>
+        <v>0.406636741023604</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5263330734718679</v>
       </c>
       <c r="L6">
-        <v>0.08454783330620685</v>
+        <v>0.07836401347209421</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.860745244231111</v>
+      </c>
+      <c r="P6">
+        <v>3.334239252017738</v>
+      </c>
+      <c r="Q6">
+        <v>2.083498954422112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02610542446592667</v>
+        <v>0.03735782478516825</v>
       </c>
       <c r="D7">
-        <v>0.02675943146043736</v>
+        <v>0.07157441291175459</v>
       </c>
       <c r="E7">
-        <v>0.04167484662080057</v>
+        <v>0.06474697329382462</v>
       </c>
       <c r="F7">
-        <v>3.445082123082813</v>
+        <v>0.8005945034957875</v>
       </c>
       <c r="G7">
-        <v>3.512852320882672</v>
+        <v>0.6277863148534379</v>
       </c>
       <c r="H7">
-        <v>1.872462453629481</v>
+        <v>0.0007287623176537306</v>
       </c>
       <c r="I7">
-        <v>2.557242056207144</v>
+        <v>0.01726563632841227</v>
       </c>
       <c r="J7">
-        <v>0.1241471821876132</v>
+        <v>0.4164471765338362</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5436382256489338</v>
       </c>
       <c r="L7">
-        <v>0.08586834231440577</v>
+        <v>0.07870315878717826</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219662</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.950423287701767</v>
+      </c>
+      <c r="P7">
+        <v>3.466049640578888</v>
+      </c>
+      <c r="Q7">
+        <v>2.152559194916734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02606156244015878</v>
+        <v>0.04352960203835465</v>
       </c>
       <c r="D8">
-        <v>0.03017362454615835</v>
+        <v>0.07183737783748967</v>
       </c>
       <c r="E8">
-        <v>0.04348871515503738</v>
+        <v>0.06512331908598723</v>
       </c>
       <c r="F8">
-        <v>4.053898494078595</v>
+        <v>0.9038711143313662</v>
       </c>
       <c r="G8">
-        <v>4.188631257986259</v>
+        <v>0.7311879454359769</v>
       </c>
       <c r="H8">
-        <v>2.17915657175746</v>
+        <v>0.00219899533796164</v>
       </c>
       <c r="I8">
-        <v>3.013883027650181</v>
+        <v>0.02317705968355277</v>
       </c>
       <c r="J8">
-        <v>0.1384693094065739</v>
+        <v>0.4612010879298651</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6225479115091943</v>
       </c>
       <c r="L8">
-        <v>0.09209189598551148</v>
+        <v>0.08012727869222624</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.345862153474144</v>
+      </c>
+      <c r="P8">
+        <v>4.04684129452869</v>
+      </c>
+      <c r="Q8">
+        <v>2.465832264820051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02616732581458514</v>
+        <v>0.05632860983331511</v>
       </c>
       <c r="D9">
-        <v>0.03736145937314816</v>
+        <v>0.07267445303892117</v>
       </c>
       <c r="E9">
-        <v>0.0477182049155136</v>
+        <v>0.06584302660693542</v>
       </c>
       <c r="F9">
-        <v>5.354567069081952</v>
+        <v>1.114100443244084</v>
       </c>
       <c r="G9">
-        <v>5.627043844239097</v>
+        <v>0.9403816939350378</v>
       </c>
       <c r="H9">
-        <v>2.837276770165715</v>
+        <v>0.006972851286809911</v>
       </c>
       <c r="I9">
-        <v>3.989140820601676</v>
+        <v>0.0362253134302355</v>
       </c>
       <c r="J9">
-        <v>0.1697728026757943</v>
+        <v>0.5527409022090524</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.7825533619761416</v>
       </c>
       <c r="L9">
-        <v>0.1060585487993819</v>
+        <v>0.08263433574465018</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550619</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.116962024382417</v>
+      </c>
+      <c r="P9">
+        <v>5.184991314333615</v>
+      </c>
+      <c r="Q9">
+        <v>3.101605804317728</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02639149037021404</v>
+        <v>0.06515717626298567</v>
       </c>
       <c r="D10">
-        <v>0.04316792440210193</v>
+        <v>0.07215800657692384</v>
       </c>
       <c r="E10">
-        <v>0.05136458829690049</v>
+        <v>0.06541231696403971</v>
       </c>
       <c r="F10">
-        <v>6.407598398917628</v>
+        <v>1.256321345570058</v>
       </c>
       <c r="G10">
-        <v>6.788339838571574</v>
+        <v>1.085592973988412</v>
       </c>
       <c r="H10">
-        <v>3.372123926481379</v>
+        <v>0.01175141161053039</v>
       </c>
       <c r="I10">
-        <v>4.778572460476624</v>
+        <v>0.04694610350655903</v>
       </c>
       <c r="J10">
-        <v>0.1955824589679054</v>
+        <v>0.616125957282236</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8928789896341556</v>
       </c>
       <c r="L10">
-        <v>0.1177940953481809</v>
+        <v>0.08414390792854043</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837525</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.647560299961043</v>
+      </c>
+      <c r="P10">
+        <v>6.041191721107793</v>
+      </c>
+      <c r="Q10">
+        <v>3.542575594147195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02653432026268021</v>
+        <v>0.07058727454955971</v>
       </c>
       <c r="D11">
-        <v>0.04599096119151369</v>
+        <v>0.06116266524315961</v>
       </c>
       <c r="E11">
-        <v>0.05317732684145682</v>
+        <v>0.0632920922216007</v>
       </c>
       <c r="F11">
-        <v>6.917135116798704</v>
+        <v>1.192939665798605</v>
       </c>
       <c r="G11">
-        <v>7.349578255000552</v>
+        <v>1.065738338175962</v>
       </c>
       <c r="H11">
-        <v>3.631426789102534</v>
+        <v>0.03042842857661654</v>
       </c>
       <c r="I11">
-        <v>5.160541781836116</v>
+        <v>0.05081745013745476</v>
       </c>
       <c r="J11">
-        <v>0.2081792633230677</v>
+        <v>0.6024434127433551</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.8816359851255697</v>
       </c>
       <c r="L11">
-        <v>0.1235678894534971</v>
+        <v>0.09623745164919839</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731768</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>3.62268336860113</v>
+      </c>
+      <c r="P11">
+        <v>6.594116109005654</v>
+      </c>
+      <c r="Q11">
+        <v>3.472029374113845</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02659530301098556</v>
+        <v>0.07502251609487587</v>
       </c>
       <c r="D12">
-        <v>0.04709356335212433</v>
+        <v>0.05509114028544371</v>
       </c>
       <c r="E12">
-        <v>0.05388983016087501</v>
+        <v>0.07070297125817859</v>
       </c>
       <c r="F12">
-        <v>7.115472185974312</v>
+        <v>1.113198864120051</v>
       </c>
       <c r="G12">
-        <v>7.567945055893802</v>
+        <v>1.021470497428297</v>
       </c>
       <c r="H12">
-        <v>3.732438977037134</v>
+        <v>0.06862489332988986</v>
       </c>
       <c r="I12">
-        <v>5.309222227569222</v>
+        <v>0.05161526955069462</v>
       </c>
       <c r="J12">
-        <v>0.2130987073827839</v>
+        <v>0.5789051555287585</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.8526485651058167</v>
       </c>
       <c r="L12">
-        <v>0.125829144393613</v>
+        <v>0.1235752591788426</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>3.491593980489085</v>
+      </c>
+      <c r="P12">
+        <v>6.884621202527512</v>
+      </c>
+      <c r="Q12">
+        <v>3.328984068757819</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02658184322678636</v>
+        <v>0.07761181308134724</v>
       </c>
       <c r="D13">
-        <v>0.04685446472376853</v>
+        <v>0.05255917746503425</v>
       </c>
       <c r="E13">
-        <v>0.05373514888361264</v>
+        <v>0.08562111919444781</v>
       </c>
       <c r="F13">
-        <v>7.072498715074403</v>
+        <v>1.013445945317756</v>
       </c>
       <c r="G13">
-        <v>7.520635911816271</v>
+        <v>0.9524462789175487</v>
       </c>
       <c r="H13">
-        <v>3.710549186058074</v>
+        <v>0.1233516854333061</v>
       </c>
       <c r="I13">
-        <v>5.277007819514751</v>
+        <v>0.05021006444767995</v>
       </c>
       <c r="J13">
-        <v>0.2120320921623318</v>
+        <v>0.5446964702376533</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.8041996636993858</v>
       </c>
       <c r="L13">
-        <v>0.1253385880907913</v>
+        <v>0.1636139179702525</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.26155457991871</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>3.269343682217425</v>
+      </c>
+      <c r="P13">
+        <v>6.988802068858661</v>
+      </c>
+      <c r="Q13">
+        <v>3.111036266461809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02653919227561019</v>
+        <v>0.0783202545486219</v>
       </c>
       <c r="D14">
-        <v>0.04608095022132019</v>
+        <v>0.05279997439017414</v>
       </c>
       <c r="E14">
-        <v>0.05323539706516378</v>
+        <v>0.1004478035999981</v>
       </c>
       <c r="F14">
-        <v>6.933337907015016</v>
+        <v>0.9348817595403602</v>
       </c>
       <c r="G14">
-        <v>7.367419204011753</v>
+        <v>0.8927732180550407</v>
       </c>
       <c r="H14">
-        <v>3.639677197387357</v>
+        <v>0.1717885969420365</v>
       </c>
       <c r="I14">
-        <v>5.172687974147436</v>
+        <v>0.04830953191455478</v>
       </c>
       <c r="J14">
-        <v>0.2085808243662299</v>
+        <v>0.515815619653111</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.7610131807923892</v>
       </c>
       <c r="L14">
-        <v>0.123752343946137</v>
+        <v>0.1992254862754024</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796548</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>3.073279147811846</v>
+      </c>
+      <c r="P14">
+        <v>6.977344069799983</v>
+      </c>
+      <c r="Q14">
+        <v>2.924029803943739</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02651400052677744</v>
+        <v>0.07765136904690451</v>
       </c>
       <c r="D15">
-        <v>0.04561177777999603</v>
+        <v>0.05316178940340066</v>
       </c>
       <c r="E15">
-        <v>0.05293280946897561</v>
+        <v>0.1043664831962232</v>
       </c>
       <c r="F15">
-        <v>6.848833022543971</v>
+        <v>0.9108991238552733</v>
       </c>
       <c r="G15">
-        <v>7.274366803704083</v>
+        <v>0.872326991231887</v>
       </c>
       <c r="H15">
-        <v>3.596650763026673</v>
+        <v>0.1838953813855682</v>
       </c>
       <c r="I15">
-        <v>5.109340052304901</v>
+        <v>0.04744041405371746</v>
       </c>
       <c r="J15">
-        <v>0.2064871499824861</v>
+        <v>0.5062089720519651</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.7455100365586844</v>
       </c>
       <c r="L15">
-        <v>0.1227908821842973</v>
+        <v>0.2081661487515802</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193834</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>3.005964985843605</v>
+      </c>
+      <c r="P15">
+        <v>6.934085201641665</v>
+      </c>
+      <c r="Q15">
+        <v>2.860544489876816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02638305939449381</v>
+        <v>0.07268541451052357</v>
       </c>
       <c r="D16">
-        <v>0.04298768278772869</v>
+        <v>0.05386030406921982</v>
       </c>
       <c r="E16">
-        <v>0.05124953560455836</v>
+        <v>0.1009485452505849</v>
       </c>
       <c r="F16">
-        <v>6.374993230643781</v>
+        <v>0.8707625902161737</v>
       </c>
       <c r="G16">
-        <v>6.752413108781809</v>
+        <v>0.8237642681200157</v>
       </c>
       <c r="H16">
-        <v>3.355541540488616</v>
+        <v>0.1692247774865194</v>
       </c>
       <c r="I16">
-        <v>4.754130078060427</v>
+        <v>0.04307009003444229</v>
       </c>
       <c r="J16">
-        <v>0.1947785599147593</v>
+        <v>0.4857040310989476</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.7071696942171926</v>
       </c>
       <c r="L16">
-        <v>0.1174265089373989</v>
+        <v>0.1980699167838367</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>2.828264343832529</v>
+      </c>
+      <c r="P16">
+        <v>6.538642958191417</v>
+      </c>
+      <c r="Q16">
+        <v>2.714482327998837</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02631384021745653</v>
+        <v>0.0684776372533733</v>
       </c>
       <c r="D17">
-        <v>0.04142915061171948</v>
+        <v>0.05401786728465208</v>
       </c>
       <c r="E17">
-        <v>0.05025886822348546</v>
+        <v>0.08978388444892893</v>
       </c>
       <c r="F17">
-        <v>6.09276463541363</v>
+        <v>0.8812685395367055</v>
       </c>
       <c r="G17">
-        <v>6.441359504858212</v>
+        <v>0.8179952559722636</v>
       </c>
       <c r="H17">
-        <v>3.212060327515928</v>
+        <v>0.13046314791616</v>
       </c>
       <c r="I17">
-        <v>4.542556348882215</v>
+        <v>0.04077167360106593</v>
       </c>
       <c r="J17">
-        <v>0.1878318083601513</v>
+        <v>0.4852482045830016</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7005211962493121</v>
       </c>
       <c r="L17">
-        <v>0.1142550135741871</v>
+        <v>0.1701657396106953</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>2.795072398350527</v>
+      </c>
+      <c r="P17">
+        <v>6.242690995576936</v>
+      </c>
+      <c r="Q17">
+        <v>2.701177644813924</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02627779810829622</v>
+        <v>0.06537433838100526</v>
       </c>
       <c r="D18">
-        <v>0.0405492809443615</v>
+        <v>0.0553066594300744</v>
       </c>
       <c r="E18">
-        <v>0.04970327790437423</v>
+        <v>0.07504577007760105</v>
       </c>
       <c r="F18">
-        <v>5.933234415674804</v>
+        <v>0.938691555580121</v>
       </c>
       <c r="G18">
-        <v>6.26547357022713</v>
+        <v>0.8501232692721032</v>
       </c>
       <c r="H18">
-        <v>3.131002497171039</v>
+        <v>0.0775032834280438</v>
       </c>
       <c r="I18">
-        <v>4.422962202113041</v>
+        <v>0.03978217528885075</v>
       </c>
       <c r="J18">
-        <v>0.1839149076255424</v>
+        <v>0.5027718416229447</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.7223975820325279</v>
       </c>
       <c r="L18">
-        <v>0.1124709473735308</v>
+        <v>0.1319638350368422</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.5514994903329</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>2.884451356675655</v>
+      </c>
+      <c r="P18">
+        <v>5.999280009023948</v>
+      </c>
+      <c r="Q18">
+        <v>2.805899790548409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0262662156852258</v>
+        <v>0.06184726995394385</v>
       </c>
       <c r="D19">
-        <v>0.04025401808846496</v>
+        <v>0.05977333780228733</v>
       </c>
       <c r="E19">
-        <v>0.04951750018513223</v>
+        <v>0.0646360536045627</v>
       </c>
       <c r="F19">
-        <v>5.879674257175139</v>
+        <v>1.02826953506144</v>
       </c>
       <c r="G19">
-        <v>6.206411412100351</v>
+        <v>0.9071353332275294</v>
       </c>
       <c r="H19">
-        <v>3.103795999825138</v>
+        <v>0.0330428830495606</v>
       </c>
       <c r="I19">
-        <v>4.382809717369497</v>
+        <v>0.04027913595581989</v>
       </c>
       <c r="J19">
-        <v>0.1826015205339644</v>
+        <v>0.5317397093198792</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7611919471661253</v>
       </c>
       <c r="L19">
-        <v>0.1118734487474597</v>
+        <v>0.09994314132869064</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.46716465870088</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>3.06438951296505</v>
+      </c>
+      <c r="P19">
+        <v>5.820364843319112</v>
+      </c>
+      <c r="Q19">
+        <v>2.987380123587286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02632081190103008</v>
+        <v>0.06029601120433625</v>
       </c>
       <c r="D20">
-        <v>0.0415932973489781</v>
+        <v>0.07252831407168969</v>
       </c>
       <c r="E20">
-        <v>0.05036282954479887</v>
+        <v>0.06549229362050646</v>
       </c>
       <c r="F20">
-        <v>6.122512011624593</v>
+        <v>1.211929809630135</v>
       </c>
       <c r="G20">
-        <v>6.474151560010341</v>
+        <v>1.039868976536653</v>
       </c>
       <c r="H20">
-        <v>3.22717874496783</v>
+        <v>0.01032574264040909</v>
       </c>
       <c r="I20">
-        <v>4.564856750795627</v>
+        <v>0.04441637402300902</v>
       </c>
       <c r="J20">
-        <v>0.1885629867036869</v>
+        <v>0.5956928803926047</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.855201194344005</v>
       </c>
       <c r="L20">
-        <v>0.1145883948738415</v>
+        <v>0.08365818754438736</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.501196553867587</v>
+      </c>
+      <c r="P20">
+        <v>5.82067369378791</v>
+      </c>
+      <c r="Q20">
+        <v>3.402755792065648</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02655152317914933</v>
+        <v>0.06699468147252219</v>
       </c>
       <c r="D21">
-        <v>0.04630716962825332</v>
+        <v>0.07457884736593812</v>
       </c>
       <c r="E21">
-        <v>0.05338144343689777</v>
+        <v>0.06671809446877575</v>
       </c>
       <c r="F21">
-        <v>6.974057482925389</v>
+        <v>1.34617689618878</v>
       </c>
       <c r="G21">
-        <v>7.41225417933947</v>
+        <v>1.168391887682162</v>
       </c>
       <c r="H21">
-        <v>3.660412740917423</v>
+        <v>0.01469254623696892</v>
       </c>
       <c r="I21">
-        <v>5.203212817169941</v>
+        <v>0.05330545716295276</v>
       </c>
       <c r="J21">
-        <v>0.2095902535066827</v>
+        <v>0.6528893560686129</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.9521077203032178</v>
       </c>
       <c r="L21">
-        <v>0.1242161192634086</v>
+        <v>0.08502721307845773</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>3.954515355287725</v>
+      </c>
+      <c r="P21">
+        <v>6.449728422620808</v>
+      </c>
+      <c r="Q21">
+        <v>3.795276998626491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02674320224998361</v>
+        <v>0.07251368158456017</v>
       </c>
       <c r="D22">
-        <v>0.04958869836180213</v>
+        <v>0.0750636594241314</v>
       </c>
       <c r="E22">
-        <v>0.05550868422093558</v>
+        <v>0.0670046147230634</v>
       </c>
       <c r="F22">
-        <v>7.562637285659008</v>
+        <v>1.429991836478266</v>
       </c>
       <c r="G22">
-        <v>8.060100100838667</v>
+        <v>1.251131822037394</v>
       </c>
       <c r="H22">
-        <v>3.960329515028263</v>
+        <v>0.01783329070691131</v>
       </c>
       <c r="I22">
-        <v>5.644433062649739</v>
+        <v>0.05919306114932965</v>
       </c>
       <c r="J22">
-        <v>0.2242200724858847</v>
+        <v>0.6896992694663311</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.015870150907219</v>
       </c>
       <c r="L22">
-        <v>0.1309525536106761</v>
+        <v>0.08583678159307162</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057962</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.23721602331311</v>
+      </c>
+      <c r="P22">
+        <v>6.868949454671565</v>
+      </c>
+      <c r="Q22">
+        <v>4.047942049325286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02663674065830079</v>
+        <v>0.07055225239854934</v>
       </c>
       <c r="D23">
-        <v>0.04781590537995939</v>
+        <v>0.07466877539796002</v>
       </c>
       <c r="E23">
-        <v>0.05435766828199284</v>
+        <v>0.06683859074067655</v>
       </c>
       <c r="F23">
-        <v>7.245173514080761</v>
+        <v>1.387541742809987</v>
       </c>
       <c r="G23">
-        <v>7.710718857118138</v>
+        <v>1.209594340636897</v>
       </c>
       <c r="H23">
-        <v>3.798517969767659</v>
+        <v>0.01614482283548346</v>
       </c>
       <c r="I23">
-        <v>5.406450841933008</v>
+        <v>0.05587249132214289</v>
       </c>
       <c r="J23">
-        <v>0.2163203021389819</v>
+        <v>0.6713481250027371</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.9850065502877214</v>
       </c>
       <c r="L23">
-        <v>0.1273117165890838</v>
+        <v>0.08543260451429879</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.088771090518833</v>
+      </c>
+      <c r="P23">
+        <v>6.643750612166741</v>
+      </c>
+      <c r="Q23">
+        <v>3.921360962477763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02631764838626793</v>
+        <v>0.06143788137460859</v>
       </c>
       <c r="D24">
-        <v>0.04151903683721869</v>
+        <v>0.0735305455592794</v>
       </c>
       <c r="E24">
-        <v>0.05031578544031312</v>
+        <v>0.06625536371120466</v>
       </c>
       <c r="F24">
-        <v>6.109054801839676</v>
+        <v>1.224872535360788</v>
       </c>
       <c r="G24">
-        <v>6.45931718470041</v>
+        <v>1.049399491231128</v>
       </c>
       <c r="H24">
-        <v>3.220339287376987</v>
+        <v>0.01038795892636117</v>
       </c>
       <c r="I24">
-        <v>4.554768431699046</v>
+        <v>0.04415358812159376</v>
       </c>
       <c r="J24">
-        <v>0.1882321834091343</v>
+        <v>0.6005193865937599</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.8636876073032411</v>
       </c>
       <c r="L24">
-        <v>0.1144375517616396</v>
+        <v>0.08381269143641035</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.521142044732727</v>
+      </c>
+      <c r="P24">
+        <v>5.794066004635397</v>
+      </c>
+      <c r="Q24">
+        <v>3.433059459277729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02611552432066411</v>
+        <v>0.05145895986301952</v>
       </c>
       <c r="D25">
-        <v>0.0353437441270934</v>
+        <v>0.07258267333146051</v>
       </c>
       <c r="E25">
-        <v>0.04649006697040292</v>
+        <v>0.06566145345290941</v>
       </c>
       <c r="F25">
-        <v>4.988285356302896</v>
+        <v>1.053119240906057</v>
       </c>
       <c r="G25">
-        <v>5.222521133830185</v>
+        <v>0.8794046307892955</v>
       </c>
       <c r="H25">
-        <v>2.651621494352241</v>
+        <v>0.005436943479666889</v>
       </c>
       <c r="I25">
-        <v>3.714525959202007</v>
+        <v>0.03269786076881775</v>
       </c>
       <c r="J25">
-        <v>0.1608814763124258</v>
+        <v>0.5257385326613218</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.7343418584655979</v>
       </c>
       <c r="L25">
-        <v>0.1020545534691237</v>
+        <v>0.08194699157559149</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>2.905641881419299</v>
+      </c>
+      <c r="P25">
+        <v>4.87901198965119</v>
+      </c>
+      <c r="Q25">
+        <v>2.915639083727001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.04631100305653746</v>
+        <v>0.02147893953878821</v>
       </c>
       <c r="D2">
-        <v>0.07179238947436772</v>
+        <v>0.07427559552681018</v>
       </c>
       <c r="E2">
-        <v>0.06521346424552998</v>
+        <v>0.06359602118130647</v>
       </c>
       <c r="F2">
-        <v>0.9348798413896588</v>
+        <v>0.8561430513014869</v>
       </c>
       <c r="G2">
-        <v>0.7624789374041399</v>
+        <v>0.6522049134479033</v>
       </c>
       <c r="H2">
-        <v>0.002726165233355005</v>
+        <v>0.002086438467255536</v>
       </c>
       <c r="I2">
-        <v>0.02474158973207174</v>
+        <v>0.02088248384190772</v>
       </c>
       <c r="J2">
-        <v>0.4749984631433932</v>
+        <v>0.4817657381166782</v>
       </c>
       <c r="K2">
-        <v>0.6476909656938403</v>
+        <v>0.5409878657467075</v>
       </c>
       <c r="L2">
-        <v>0.08052462192917975</v>
+        <v>0.2758397184901469</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1577462785415733</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.07741105800744441</v>
       </c>
       <c r="O2">
-        <v>2.455233047672323</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>4.202634673439491</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.561148961298471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.369601654853341</v>
+      </c>
+      <c r="R2">
+        <v>4.25474710418996</v>
+      </c>
+      <c r="S2">
+        <v>2.279463403947943</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04134024595411745</v>
+        <v>0.01956022866664675</v>
       </c>
       <c r="D3">
-        <v>0.07155430146328001</v>
+        <v>0.0736441988363552</v>
       </c>
       <c r="E3">
-        <v>0.06492258098837445</v>
+        <v>0.06357700053919357</v>
       </c>
       <c r="F3">
-        <v>0.8527760692289945</v>
+        <v>0.786937185466428</v>
       </c>
       <c r="G3">
-        <v>0.6804102637783132</v>
+        <v>0.5847431964671159</v>
       </c>
       <c r="H3">
-        <v>0.001359555994566275</v>
+        <v>0.0009842861404683045</v>
       </c>
       <c r="I3">
-        <v>0.01993121782163376</v>
+        <v>0.01711992291474473</v>
       </c>
       <c r="J3">
-        <v>0.4393544210240634</v>
+        <v>0.4512956795981609</v>
       </c>
       <c r="K3">
-        <v>0.584967289732802</v>
+        <v>0.4950735818493541</v>
       </c>
       <c r="L3">
-        <v>0.07944122912164486</v>
+        <v>0.2689679904252316</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1303822864777295</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.07684025687929497</v>
       </c>
       <c r="O3">
-        <v>2.14492564866066</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.746429221495504</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.312262218746014</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.073298513303271</v>
+      </c>
+      <c r="R3">
+        <v>3.790036965068197</v>
+      </c>
+      <c r="S3">
+        <v>2.076789708390436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.03818950415509192</v>
+        <v>0.01836137813131877</v>
       </c>
       <c r="D4">
-        <v>0.07146876286005011</v>
+        <v>0.073343684669954</v>
       </c>
       <c r="E4">
-        <v>0.06474111550672212</v>
+        <v>0.06357501852623093</v>
       </c>
       <c r="F4">
-        <v>0.8028239834742266</v>
+        <v>0.7447177695016833</v>
       </c>
       <c r="G4">
-        <v>0.6302690914113072</v>
+        <v>0.5434839498072535</v>
       </c>
       <c r="H4">
-        <v>0.0007358143684328411</v>
+        <v>0.0004962967687900388</v>
       </c>
       <c r="I4">
-        <v>0.01715759195803024</v>
+        <v>0.01494115184113021</v>
       </c>
       <c r="J4">
-        <v>0.4176687514032551</v>
+        <v>0.4325421381170997</v>
       </c>
       <c r="K4">
-        <v>0.5464875392643265</v>
+        <v>0.4667255019187024</v>
       </c>
       <c r="L4">
-        <v>0.07873280251640091</v>
+        <v>0.2644395578180578</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1142777668555901</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.07645512791215192</v>
       </c>
       <c r="O4">
-        <v>1.95341882712323</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.466437385427128</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>2.160381623669593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.890270439403963</v>
+      </c>
+      <c r="R4">
+        <v>3.504864416323414</v>
+      </c>
+      <c r="S4">
+        <v>1.952647251867063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03663828438088501</v>
+        <v>0.01777269311085483</v>
       </c>
       <c r="D5">
-        <v>0.07148002154105981</v>
+        <v>0.07328000537073365</v>
       </c>
       <c r="E5">
-        <v>0.06466803879800809</v>
+        <v>0.06358050564787332</v>
       </c>
       <c r="F5">
-        <v>0.781991058884401</v>
+        <v>0.7270312534418082</v>
       </c>
       <c r="G5">
-        <v>0.6092331483266378</v>
+        <v>0.5261040641688055</v>
       </c>
       <c r="H5">
-        <v>0.0005312043681569012</v>
+        <v>0.0003411683205774008</v>
       </c>
       <c r="I5">
-        <v>0.01610372636605373</v>
+        <v>0.01413374604590523</v>
       </c>
       <c r="J5">
-        <v>0.4085496175718504</v>
+        <v>0.4245746963381549</v>
       </c>
       <c r="K5">
-        <v>0.5300256336892843</v>
+        <v>0.4544345570488346</v>
       </c>
       <c r="L5">
-        <v>0.07842521444554373</v>
+        <v>0.2622105666770054</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1076642474341583</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.07628292579797424</v>
       </c>
       <c r="O5">
-        <v>1.874559865657289</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.352705000757709</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2.096617433001683</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.814859862391387</v>
+      </c>
+      <c r="R5">
+        <v>3.389025977526472</v>
+      </c>
+      <c r="S5">
+        <v>1.900201137354941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03608457202474114</v>
+        <v>0.01756227547228484</v>
       </c>
       <c r="D6">
-        <v>0.07152144201298682</v>
+        <v>0.07331694371349684</v>
       </c>
       <c r="E6">
-        <v>0.06465829373171994</v>
+        <v>0.06358681174908565</v>
       </c>
       <c r="F6">
-        <v>0.7778261490695115</v>
+        <v>0.7234345698305162</v>
       </c>
       <c r="G6">
-        <v>0.6049403699675082</v>
+        <v>0.522487502431531</v>
       </c>
       <c r="H6">
-        <v>0.0004989721308406025</v>
+        <v>0.0003171389097349486</v>
       </c>
       <c r="I6">
-        <v>0.0159814793820745</v>
+        <v>0.01407181722378326</v>
       </c>
       <c r="J6">
-        <v>0.406636741023604</v>
+        <v>0.4228686638346346</v>
       </c>
       <c r="K6">
-        <v>0.5263330734718679</v>
+        <v>0.45153921201819</v>
       </c>
       <c r="L6">
-        <v>0.07836401347209421</v>
+        <v>0.2614628701590291</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1063017815299574</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.07624609843989694</v>
       </c>
       <c r="O6">
-        <v>1.860745244231111</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.334239252017738</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>2.083498954422112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.801643372572499</v>
+      </c>
+      <c r="R6">
+        <v>3.370203852370054</v>
+      </c>
+      <c r="S6">
+        <v>1.889156295748506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03735782478516825</v>
+        <v>0.01807742199016715</v>
       </c>
       <c r="D7">
-        <v>0.07157441291175459</v>
+        <v>0.07354825883448868</v>
       </c>
       <c r="E7">
-        <v>0.06474697329382462</v>
+        <v>0.06360006669183838</v>
       </c>
       <c r="F7">
-        <v>0.8005945034957875</v>
+        <v>0.741563744990053</v>
       </c>
       <c r="G7">
-        <v>0.6277863148534379</v>
+        <v>0.5455211568573191</v>
       </c>
       <c r="H7">
-        <v>0.0007287623176537306</v>
+        <v>0.0004892446808497652</v>
       </c>
       <c r="I7">
-        <v>0.01726563632841227</v>
+        <v>0.01509298432411921</v>
       </c>
       <c r="J7">
-        <v>0.4164471765338362</v>
+        <v>0.424973020102442</v>
       </c>
       <c r="K7">
-        <v>0.5436382256489338</v>
+        <v>0.4634526966109433</v>
       </c>
       <c r="L7">
-        <v>0.07870315878717826</v>
+        <v>0.2630726813012956</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.113163058162673</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.07642099518719925</v>
       </c>
       <c r="O7">
-        <v>1.950423287701767</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.466049640578888</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.152559194916734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.886271495433519</v>
+      </c>
+      <c r="R7">
+        <v>3.50511032310078</v>
+      </c>
+      <c r="S7">
+        <v>1.941660478401474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04352960203835465</v>
+        <v>0.02052960864192954</v>
       </c>
       <c r="D8">
-        <v>0.07183737783748967</v>
+        <v>0.07447695533359422</v>
       </c>
       <c r="E8">
-        <v>0.06512331908598723</v>
+        <v>0.06364589628912221</v>
       </c>
       <c r="F8">
-        <v>0.9038711143313662</v>
+        <v>0.8261392992375818</v>
       </c>
       <c r="G8">
-        <v>0.7311879454359769</v>
+        <v>0.6405776234653615</v>
       </c>
       <c r="H8">
-        <v>0.00219899533796164</v>
+        <v>0.00164832501576806</v>
       </c>
       <c r="I8">
-        <v>0.02317705968355277</v>
+        <v>0.01971534583709023</v>
       </c>
       <c r="J8">
-        <v>0.4612010879298651</v>
+        <v>0.4487195894441101</v>
       </c>
       <c r="K8">
-        <v>0.6225479115091943</v>
+        <v>0.5195141578304501</v>
       </c>
       <c r="L8">
-        <v>0.08012727869222624</v>
+        <v>0.2712235813516486</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.146164071925881</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.07716229985441492</v>
       </c>
       <c r="O8">
-        <v>2.345862153474144</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>4.04684129452869</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.465832264820051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.261422087046398</v>
+      </c>
+      <c r="R8">
+        <v>4.098281234702824</v>
+      </c>
+      <c r="S8">
+        <v>2.188076351776203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.05632860983331511</v>
+        <v>0.02562602863097041</v>
       </c>
       <c r="D9">
-        <v>0.07267445303892117</v>
+        <v>0.07650909783527737</v>
       </c>
       <c r="E9">
-        <v>0.06584302660693542</v>
+        <v>0.06376577068383948</v>
       </c>
       <c r="F9">
-        <v>1.114100443244084</v>
+        <v>1.001812961108897</v>
       </c>
       <c r="G9">
-        <v>0.9403816939350378</v>
+        <v>0.8166679158455992</v>
       </c>
       <c r="H9">
-        <v>0.006972851286809911</v>
+        <v>0.005574871079794541</v>
       </c>
       <c r="I9">
-        <v>0.0362253134302355</v>
+        <v>0.02974854007949013</v>
       </c>
       <c r="J9">
-        <v>0.5527409022090524</v>
+        <v>0.5197809357016325</v>
       </c>
       <c r="K9">
-        <v>0.7825533619761416</v>
+        <v>0.6353408663452385</v>
       </c>
       <c r="L9">
-        <v>0.08263433574465018</v>
+        <v>0.2876664375490847</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.2189293399967909</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07842702005121716</v>
       </c>
       <c r="O9">
-        <v>3.116962024382417</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>5.184991314333615</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>3.101605804317728</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>2.995672938432591</v>
+      </c>
+      <c r="R9">
+        <v>5.258549774670541</v>
+      </c>
+      <c r="S9">
+        <v>2.700230083226614</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06515717626298567</v>
+        <v>0.02948237898903017</v>
       </c>
       <c r="D10">
-        <v>0.07215800657692384</v>
+        <v>0.07713014844581068</v>
       </c>
       <c r="E10">
-        <v>0.06541231696403971</v>
+        <v>0.06277071205548967</v>
       </c>
       <c r="F10">
-        <v>1.256321345570058</v>
+        <v>1.112517552164221</v>
       </c>
       <c r="G10">
-        <v>1.085592973988412</v>
+        <v>0.9642734686454872</v>
       </c>
       <c r="H10">
-        <v>0.01175141161053039</v>
+        <v>0.009544847238918575</v>
       </c>
       <c r="I10">
-        <v>0.04694610350655903</v>
+        <v>0.03789231754648892</v>
       </c>
       <c r="J10">
-        <v>0.616125957282236</v>
+        <v>0.5311274490391469</v>
       </c>
       <c r="K10">
-        <v>0.8928789896341556</v>
+        <v>0.7091038455934324</v>
       </c>
       <c r="L10">
-        <v>0.08414390792854043</v>
+        <v>0.2944203393560372</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2715642853243878</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.07889392632898407</v>
       </c>
       <c r="O10">
-        <v>3.647560299961043</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>6.041191721107793</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.542575594147195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.493023268325999</v>
+      </c>
+      <c r="R10">
+        <v>6.135057766926593</v>
+      </c>
+      <c r="S10">
+        <v>3.028024788950603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07058727454955971</v>
+        <v>0.03212916925681419</v>
       </c>
       <c r="D11">
-        <v>0.06116266524315961</v>
+        <v>0.0637942278705026</v>
       </c>
       <c r="E11">
-        <v>0.0632920922216007</v>
+        <v>0.05790167804148139</v>
       </c>
       <c r="F11">
-        <v>1.192939665798605</v>
+        <v>1.037531587878036</v>
       </c>
       <c r="G11">
-        <v>1.065738338175962</v>
+        <v>1.00064364166343</v>
       </c>
       <c r="H11">
-        <v>0.03042842857661654</v>
+        <v>0.02804387776248163</v>
       </c>
       <c r="I11">
-        <v>0.05081745013745476</v>
+        <v>0.04084226386635148</v>
       </c>
       <c r="J11">
-        <v>0.6024434127433551</v>
+        <v>0.4450781234196057</v>
       </c>
       <c r="K11">
-        <v>0.8816359851255697</v>
+        <v>0.6866361246331962</v>
       </c>
       <c r="L11">
-        <v>0.09623745164919839</v>
+        <v>0.2777079555474486</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.2731424041117734</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08919602030243823</v>
       </c>
       <c r="O11">
-        <v>3.62268336860113</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>6.594116109005654</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>3.472029374113845</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>3.452643754511499</v>
+      </c>
+      <c r="R11">
+        <v>6.702824117036187</v>
+      </c>
+      <c r="S11">
+        <v>2.90602153372518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07502251609487587</v>
+        <v>0.03432548668811819</v>
       </c>
       <c r="D12">
-        <v>0.05509114028544371</v>
+        <v>0.05489950308211355</v>
       </c>
       <c r="E12">
-        <v>0.07070297125817859</v>
+        <v>0.06284090435739742</v>
       </c>
       <c r="F12">
-        <v>1.113198864120051</v>
+        <v>0.9590911449555506</v>
       </c>
       <c r="G12">
-        <v>1.021470497428297</v>
+        <v>0.9860555109393658</v>
       </c>
       <c r="H12">
-        <v>0.06862489332988986</v>
+        <v>0.06624889781802068</v>
       </c>
       <c r="I12">
-        <v>0.05161526955069462</v>
+        <v>0.04136958433531213</v>
       </c>
       <c r="J12">
-        <v>0.5789051555287585</v>
+        <v>0.3961595346124369</v>
       </c>
       <c r="K12">
-        <v>0.8526485651058167</v>
+        <v>0.6585122999469561</v>
       </c>
       <c r="L12">
-        <v>0.1235752591788426</v>
+        <v>0.264739944475906</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.2655392309615934</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1151173932089335</v>
       </c>
       <c r="O12">
-        <v>3.491593980489085</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>6.884621202527512</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>3.328984068757819</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>3.319977685342266</v>
+      </c>
+      <c r="R12">
+        <v>6.999083808473983</v>
+      </c>
+      <c r="S12">
+        <v>2.758249354750745</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07761181308134724</v>
+        <v>0.03580362924004987</v>
       </c>
       <c r="D13">
-        <v>0.05255917746503425</v>
+        <v>0.04930691462809733</v>
       </c>
       <c r="E13">
-        <v>0.08562111919444781</v>
+        <v>0.0757207316629902</v>
       </c>
       <c r="F13">
-        <v>1.013445945317756</v>
+        <v>0.8728036226290925</v>
       </c>
       <c r="G13">
-        <v>0.9524462789175487</v>
+        <v>0.9169918573752085</v>
       </c>
       <c r="H13">
-        <v>0.1233516854333061</v>
+        <v>0.1211475843324763</v>
       </c>
       <c r="I13">
-        <v>0.05021006444767995</v>
+        <v>0.04032886874572927</v>
       </c>
       <c r="J13">
-        <v>0.5446964702376533</v>
+        <v>0.3791123174109288</v>
       </c>
       <c r="K13">
-        <v>0.8041996636993858</v>
+        <v>0.622523306739545</v>
       </c>
       <c r="L13">
-        <v>0.1636139179702525</v>
+        <v>0.2528981564949007</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.249837412442524</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1541751547967465</v>
       </c>
       <c r="O13">
-        <v>3.269343682217425</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>6.988802068858661</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>3.111036266461809</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>3.109342082611633</v>
+      </c>
+      <c r="R13">
+        <v>7.100057517488381</v>
+      </c>
+      <c r="S13">
+        <v>2.58045110128873</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.0783202545486219</v>
+        <v>0.03642490480297056</v>
       </c>
       <c r="D14">
-        <v>0.05279997439017414</v>
+        <v>0.04753799849014118</v>
       </c>
       <c r="E14">
-        <v>0.1004478035999981</v>
+        <v>0.08948793388379883</v>
       </c>
       <c r="F14">
-        <v>0.9348817595403602</v>
+        <v>0.8085349817634153</v>
       </c>
       <c r="G14">
-        <v>0.8927732180550407</v>
+        <v>0.8454459449277465</v>
       </c>
       <c r="H14">
-        <v>0.1717885969420365</v>
+        <v>0.1697670788863235</v>
       </c>
       <c r="I14">
-        <v>0.04830953191455478</v>
+        <v>0.03897667621412904</v>
       </c>
       <c r="J14">
-        <v>0.515815619653111</v>
+        <v>0.3794309586700422</v>
       </c>
       <c r="K14">
-        <v>0.7610131807923892</v>
+        <v>0.5930480578535082</v>
       </c>
       <c r="L14">
-        <v>0.1992254862754024</v>
+        <v>0.2447317685739634</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2350314140413658</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1893856983843918</v>
       </c>
       <c r="O14">
-        <v>3.073279147811846</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>6.977344069799983</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>2.924029803943739</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>2.926880538221795</v>
+      </c>
+      <c r="R14">
+        <v>7.082295704533124</v>
+      </c>
+      <c r="S14">
+        <v>2.440272729946685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07765136904690451</v>
+        <v>0.03618988038900639</v>
       </c>
       <c r="D15">
-        <v>0.05316178940340066</v>
+        <v>0.04748393329920209</v>
       </c>
       <c r="E15">
-        <v>0.1043664831962232</v>
+        <v>0.09332052231697929</v>
       </c>
       <c r="F15">
-        <v>0.9108991238552733</v>
+        <v>0.7902132998719225</v>
       </c>
       <c r="G15">
-        <v>0.872326991231887</v>
+        <v>0.8173528533363452</v>
       </c>
       <c r="H15">
-        <v>0.1838953813855682</v>
+        <v>0.1819570891488667</v>
       </c>
       <c r="I15">
-        <v>0.04744041405371746</v>
+        <v>0.03840001581733876</v>
       </c>
       <c r="J15">
-        <v>0.5062089720519651</v>
+        <v>0.384472656886345</v>
       </c>
       <c r="K15">
-        <v>0.7455100365586844</v>
+        <v>0.5832031713694121</v>
       </c>
       <c r="L15">
-        <v>0.2081661487515802</v>
+        <v>0.2425628905206523</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2293732533791655</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1983669892850131</v>
       </c>
       <c r="O15">
-        <v>3.005964985843605</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>6.934085201641665</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>2.860544489876816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>2.865301979389855</v>
+      </c>
+      <c r="R15">
+        <v>7.035723610132038</v>
+      </c>
+      <c r="S15">
+        <v>2.396597291456004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07268541451052357</v>
+        <v>0.03370059503673062</v>
       </c>
       <c r="D16">
-        <v>0.05386030406921982</v>
+        <v>0.04860334180766746</v>
       </c>
       <c r="E16">
-        <v>0.1009485452505849</v>
+        <v>0.09126178003136687</v>
       </c>
       <c r="F16">
-        <v>0.8707625902161737</v>
+        <v>0.76879209827338</v>
       </c>
       <c r="G16">
-        <v>0.8237642681200157</v>
+        <v>0.7305490906710475</v>
       </c>
       <c r="H16">
-        <v>0.1692247774865194</v>
+        <v>0.1676595179328189</v>
       </c>
       <c r="I16">
-        <v>0.04307009003444229</v>
+        <v>0.03527490891360419</v>
       </c>
       <c r="J16">
-        <v>0.4857040310989476</v>
+        <v>0.428633540848665</v>
       </c>
       <c r="K16">
-        <v>0.7071696942171926</v>
+        <v>0.5643421267640676</v>
       </c>
       <c r="L16">
-        <v>0.1980699167838367</v>
+        <v>0.2432495573943925</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2124854817466542</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1894277622415146</v>
       </c>
       <c r="O16">
-        <v>2.828264343832529</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>6.538642958191417</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2.714482327998837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>2.708556035516366</v>
+      </c>
+      <c r="R16">
+        <v>6.625097258655046</v>
+      </c>
+      <c r="S16">
+        <v>2.321934710954196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0684776372533733</v>
+        <v>0.03153013069855248</v>
       </c>
       <c r="D17">
-        <v>0.05401786728465208</v>
+        <v>0.04992130062650801</v>
       </c>
       <c r="E17">
-        <v>0.08978388444892893</v>
+        <v>0.08143460654506995</v>
       </c>
       <c r="F17">
-        <v>0.8812685395367055</v>
+        <v>0.7850607469434578</v>
       </c>
       <c r="G17">
-        <v>0.8179952559722636</v>
+        <v>0.7076405935146397</v>
       </c>
       <c r="H17">
-        <v>0.13046314791616</v>
+        <v>0.1290740233876448</v>
       </c>
       <c r="I17">
-        <v>0.04077167360106593</v>
+        <v>0.03361099732564821</v>
       </c>
       <c r="J17">
-        <v>0.4852482045830016</v>
+        <v>0.4560739295770873</v>
       </c>
       <c r="K17">
-        <v>0.7005211962493121</v>
+        <v>0.564415618500469</v>
       </c>
       <c r="L17">
-        <v>0.1701657396106953</v>
+        <v>0.247887842299491</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.2068762959459818</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.162454491386228</v>
       </c>
       <c r="O17">
-        <v>2.795072398350527</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>6.242690995576936</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.701177644813924</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>2.682851392395108</v>
+      </c>
+      <c r="R17">
+        <v>6.322235288667116</v>
+      </c>
+      <c r="S17">
+        <v>2.333964581738883</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06537433838100526</v>
+        <v>0.0297768906499094</v>
       </c>
       <c r="D18">
-        <v>0.0553066594300744</v>
+        <v>0.05307091753117188</v>
       </c>
       <c r="E18">
-        <v>0.07504577007760105</v>
+        <v>0.06825054269372188</v>
       </c>
       <c r="F18">
-        <v>0.938691555580121</v>
+        <v>0.8399823557779911</v>
       </c>
       <c r="G18">
-        <v>0.8501232692721032</v>
+        <v>0.7282258952649556</v>
       </c>
       <c r="H18">
-        <v>0.0775032834280438</v>
+        <v>0.0761488888418782</v>
       </c>
       <c r="I18">
-        <v>0.03978217528885075</v>
+        <v>0.03279065825014804</v>
       </c>
       <c r="J18">
-        <v>0.5027718416229447</v>
+        <v>0.4836040699163391</v>
       </c>
       <c r="K18">
-        <v>0.7223975820325279</v>
+        <v>0.5843249222276015</v>
       </c>
       <c r="L18">
-        <v>0.1319638350368422</v>
+        <v>0.2578539338996251</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2114943036061376</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1251596323853761</v>
       </c>
       <c r="O18">
-        <v>2.884451356675655</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>5.999280009023948</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.805899790548409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>2.771499834672539</v>
+      </c>
+      <c r="R18">
+        <v>6.076402599663595</v>
+      </c>
+      <c r="S18">
+        <v>2.435475381533877</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06184726995394385</v>
+        <v>0.02807035569231076</v>
       </c>
       <c r="D19">
-        <v>0.05977333780228733</v>
+        <v>0.0599628779443151</v>
       </c>
       <c r="E19">
-        <v>0.0646360536045627</v>
+        <v>0.05958813091932935</v>
       </c>
       <c r="F19">
-        <v>1.02826953506144</v>
+        <v>0.9215927431630178</v>
       </c>
       <c r="G19">
-        <v>0.9071353332275294</v>
+        <v>0.7755038577223274</v>
       </c>
       <c r="H19">
-        <v>0.0330428830495606</v>
+        <v>0.0315903473893826</v>
       </c>
       <c r="I19">
-        <v>0.04027913595581989</v>
+        <v>0.03321362533566674</v>
       </c>
       <c r="J19">
-        <v>0.5317397093198792</v>
+        <v>0.5123806199632526</v>
       </c>
       <c r="K19">
-        <v>0.7611919471661253</v>
+        <v>0.6155487874581027</v>
       </c>
       <c r="L19">
-        <v>0.09994314132869064</v>
+        <v>0.2702129846456742</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.222707427234873</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.09402989024813735</v>
       </c>
       <c r="O19">
-        <v>3.06438951296505</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>5.820364843319112</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.987380123587286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>2.945185278555456</v>
+      </c>
+      <c r="R19">
+        <v>5.897991092621396</v>
+      </c>
+      <c r="S19">
+        <v>2.595264396914246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06029601120433625</v>
+        <v>0.02769573531643665</v>
       </c>
       <c r="D20">
-        <v>0.07252831407168969</v>
+        <v>0.07696014144494967</v>
       </c>
       <c r="E20">
-        <v>0.06549229362050646</v>
+        <v>0.06297020969594413</v>
       </c>
       <c r="F20">
-        <v>1.211929809630135</v>
+        <v>1.081085968368427</v>
       </c>
       <c r="G20">
-        <v>1.039868976536653</v>
+        <v>0.9026620374323215</v>
       </c>
       <c r="H20">
-        <v>0.01032574264040909</v>
+        <v>0.008377869589427434</v>
       </c>
       <c r="I20">
-        <v>0.04441637402300902</v>
+        <v>0.03632849251719339</v>
       </c>
       <c r="J20">
-        <v>0.5956928803926047</v>
+        <v>0.5471382833074045</v>
       </c>
       <c r="K20">
-        <v>0.855201194344005</v>
+        <v>0.6851314282569234</v>
       </c>
       <c r="L20">
-        <v>0.08365818754438736</v>
+        <v>0.2910336871765367</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2556859494871162</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.07872255612233792</v>
       </c>
       <c r="O20">
-        <v>3.501196553867587</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>5.82067369378791</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>3.402755792065648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.359921371498999</v>
+      </c>
+      <c r="R20">
+        <v>5.9065660934927</v>
+      </c>
+      <c r="S20">
+        <v>2.934746230598165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06699468147252219</v>
+        <v>0.0310838470451813</v>
       </c>
       <c r="D21">
-        <v>0.07457884736593812</v>
+        <v>0.08223635321624556</v>
       </c>
       <c r="E21">
-        <v>0.06671809446877575</v>
+        <v>0.06450458466100617</v>
       </c>
       <c r="F21">
-        <v>1.34617689618878</v>
+        <v>1.166944589976168</v>
       </c>
       <c r="G21">
-        <v>1.168391887682162</v>
+        <v>1.118147602401336</v>
       </c>
       <c r="H21">
-        <v>0.01469254623696892</v>
+        <v>0.01186719404002401</v>
       </c>
       <c r="I21">
-        <v>0.05330545716295276</v>
+        <v>0.04271259498123836</v>
       </c>
       <c r="J21">
-        <v>0.6528893560686129</v>
+        <v>0.4524774527675817</v>
       </c>
       <c r="K21">
-        <v>0.9521077203032178</v>
+        <v>0.736265503033195</v>
       </c>
       <c r="L21">
-        <v>0.08502721307845773</v>
+        <v>0.2941129736360679</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2948420302140917</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.07937998645542599</v>
       </c>
       <c r="O21">
-        <v>3.954515355287725</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>6.449728422620808</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>3.795276998626491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>3.76333791793995</v>
+      </c>
+      <c r="R21">
+        <v>6.565215002036894</v>
+      </c>
+      <c r="S21">
+        <v>3.15702499376394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07251368158456017</v>
+        <v>0.03372229786733527</v>
       </c>
       <c r="D22">
-        <v>0.0750636594241314</v>
+        <v>0.08487103705206778</v>
       </c>
       <c r="E22">
-        <v>0.0670046147230634</v>
+        <v>0.06493048017847336</v>
       </c>
       <c r="F22">
-        <v>1.429991836478266</v>
+        <v>1.217252911724728</v>
       </c>
       <c r="G22">
-        <v>1.251131822037394</v>
+        <v>1.270143894881983</v>
       </c>
       <c r="H22">
-        <v>0.01783329070691131</v>
+        <v>0.01437386898935578</v>
       </c>
       <c r="I22">
-        <v>0.05919306114932965</v>
+        <v>0.04678127892837303</v>
       </c>
       <c r="J22">
-        <v>0.6896992694663311</v>
+        <v>0.3902809839031249</v>
       </c>
       <c r="K22">
-        <v>1.015870150907219</v>
+        <v>0.7686032823349365</v>
       </c>
       <c r="L22">
-        <v>0.08583678159307162</v>
+        <v>0.2956584271190152</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.3205394301380409</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.07968654898527158</v>
       </c>
       <c r="O22">
-        <v>4.23721602331311</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>6.868949454671565</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>4.047942049325286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.0115051312643</v>
+      </c>
+      <c r="R22">
+        <v>7.005122997014041</v>
+      </c>
+      <c r="S22">
+        <v>3.29137918537316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07055225239854934</v>
+        <v>0.03251484640466451</v>
       </c>
       <c r="D23">
-        <v>0.07466877539796002</v>
+        <v>0.08302947804693872</v>
       </c>
       <c r="E23">
-        <v>0.06683859074067655</v>
+        <v>0.06462419551418552</v>
       </c>
       <c r="F23">
-        <v>1.387541742809987</v>
+        <v>1.19550402689471</v>
       </c>
       <c r="G23">
-        <v>1.209594340636897</v>
+        <v>1.17832067343187</v>
       </c>
       <c r="H23">
-        <v>0.01614482283548346</v>
+        <v>0.01304304279172303</v>
       </c>
       <c r="I23">
-        <v>0.05587249132214289</v>
+        <v>0.04439526828813811</v>
       </c>
       <c r="J23">
-        <v>0.6713481250027371</v>
+        <v>0.4374050701151049</v>
       </c>
       <c r="K23">
-        <v>0.9850065502877214</v>
+        <v>0.7561519868576525</v>
       </c>
       <c r="L23">
-        <v>0.08543260451429879</v>
+        <v>0.2965070118409798</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.3087619356610247</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07955210260287895</v>
       </c>
       <c r="O23">
-        <v>4.088771090518833</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>6.643750612166741</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>3.921360962477763</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>3.88454954484088</v>
+      </c>
+      <c r="R23">
+        <v>6.766949201650903</v>
+      </c>
+      <c r="S23">
+        <v>3.237620099663474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06143788137460859</v>
+        <v>0.0279740904999688</v>
       </c>
       <c r="D24">
-        <v>0.0735305455592794</v>
+        <v>0.07818369535422676</v>
       </c>
       <c r="E24">
-        <v>0.06625536371120466</v>
+        <v>0.06392300304026488</v>
       </c>
       <c r="F24">
-        <v>1.224872535360788</v>
+        <v>1.093125775909357</v>
       </c>
       <c r="G24">
-        <v>1.049399491231128</v>
+        <v>0.910307458586388</v>
       </c>
       <c r="H24">
-        <v>0.01038795892636117</v>
+        <v>0.008419530891646737</v>
       </c>
       <c r="I24">
-        <v>0.04415358812159376</v>
+        <v>0.03594168167952816</v>
       </c>
       <c r="J24">
-        <v>0.6005193865937599</v>
+        <v>0.552661697039909</v>
       </c>
       <c r="K24">
-        <v>0.8636876073032411</v>
+        <v>0.6924180262316639</v>
       </c>
       <c r="L24">
-        <v>0.08381269143641035</v>
+        <v>0.2939191816015878</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2583051221501336</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.07897301776397958</v>
       </c>
       <c r="O24">
-        <v>3.521142044732727</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>5.794066004635397</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>3.433059459277729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.379331002245777</v>
+      </c>
+      <c r="R24">
+        <v>5.879818008758036</v>
+      </c>
+      <c r="S24">
+        <v>2.962441209920399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.05145895986301952</v>
+        <v>0.02377543565039986</v>
       </c>
       <c r="D25">
-        <v>0.07258267333146051</v>
+        <v>0.07599527870390332</v>
       </c>
       <c r="E25">
-        <v>0.06566145345290941</v>
+        <v>0.06373300225155187</v>
       </c>
       <c r="F25">
-        <v>1.053119240906057</v>
+        <v>0.9522473745640383</v>
       </c>
       <c r="G25">
-        <v>0.8794046307892955</v>
+        <v>0.7588781565801526</v>
       </c>
       <c r="H25">
-        <v>0.005436943479666889</v>
+        <v>0.004308365395154889</v>
       </c>
       <c r="I25">
-        <v>0.03269786076881775</v>
+        <v>0.02721912474771937</v>
       </c>
       <c r="J25">
-        <v>0.5257385326613218</v>
+        <v>0.5077788702715935</v>
       </c>
       <c r="K25">
-        <v>0.7343418584655979</v>
+        <v>0.6010150181665423</v>
       </c>
       <c r="L25">
-        <v>0.08194699157559149</v>
+        <v>0.2822978389130384</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1974560726330594</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.07809102661490819</v>
       </c>
       <c r="O25">
-        <v>2.905641881419299</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>4.87901198965119</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.915639083727001</v>
+        <v>2.796226458329215</v>
+      </c>
+      <c r="R25">
+        <v>4.945525805449734</v>
+      </c>
+      <c r="S25">
+        <v>2.555154204857814</v>
       </c>
     </row>
   </sheetData>
